--- a/config/default/forms/app/peer_calendar.xlsx
+++ b/config/default/forms/app/peer_calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hivTreatment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D09265E-E54E-430C-AE83-0B6148B60594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E94FCA7-4C3D-4F2C-9F61-021614733317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74400" yWindow="3885" windowWidth="12000" windowHeight="5970" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="82545" yWindow="1590" windowWidth="6000" windowHeight="2985" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>What services/goods did you recieve last month?</t>
   </si>
   <si>
-    <t>select_one week_to_fill_services</t>
-  </si>
-  <si>
     <t>week_to_fill_services</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t>violence</t>
   </si>
   <si>
-    <t>select_one services_received</t>
-  </si>
-  <si>
     <t xml:space="preserve">Condoms </t>
   </si>
   <si>
@@ -435,18 +429,6 @@
     <t>fourth_week</t>
   </si>
   <si>
-    <t>4. Weeks</t>
-  </si>
-  <si>
-    <t>1. Weeks</t>
-  </si>
-  <si>
-    <t>2. Weeks</t>
-  </si>
-  <si>
-    <t>3. Weeks</t>
-  </si>
-  <si>
     <t>select_one referred_clinical_services</t>
   </si>
   <si>
@@ -529,6 +511,24 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>select_multiple services_received</t>
+  </si>
+  <si>
+    <t>select_multiple week_to_fill_services</t>
+  </si>
+  <si>
+    <t>2 Weeks</t>
+  </si>
+  <si>
+    <t>1 Week</t>
+  </si>
+  <si>
+    <t>3 Weeks</t>
+  </si>
+  <si>
+    <t>4 Weeks</t>
   </si>
 </sst>
 </file>
@@ -3553,7 +3553,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4809,9 +4809,9 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" ht="13.5">
+    <row r="38" spans="1:25" ht="27">
       <c r="A38" s="5" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>88</v>
@@ -4846,13 +4846,13 @@
     </row>
     <row r="39" spans="1:25" ht="27">
       <c r="A39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>50</v>
@@ -4967,10 +4967,10 @@
         <v>13</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -5002,10 +5002,10 @@
         <v>51</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="8"/>
@@ -5035,10 +5035,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="8"/>
@@ -5068,10 +5068,10 @@
         <v>51</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
@@ -5101,10 +5101,10 @@
         <v>51</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8"/>
@@ -5131,13 +5131,13 @@
     </row>
     <row r="48" spans="1:25" ht="13.5">
       <c r="A48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8"/>
@@ -5164,13 +5164,13 @@
     </row>
     <row r="49" spans="1:25" ht="27">
       <c r="A49" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>50</v>
@@ -5202,10 +5202,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8"/>
@@ -5232,13 +5232,13 @@
     </row>
     <row r="51" spans="1:25" ht="27">
       <c r="A51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>54</v>
@@ -5267,13 +5267,13 @@
     </row>
     <row r="52" spans="1:25" ht="13.5">
       <c r="A52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>50</v>
@@ -5305,10 +5305,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="8"/>
@@ -6724,7 +6724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>50</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>54</v>
@@ -6776,10 +6776,10 @@
         <v>88</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6787,10 +6787,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6798,10 +6798,10 @@
         <v>88</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6809,59 +6809,59 @@
         <v>88</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>50</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>54</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>50</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>54</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>50</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>54</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>50</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>54</v>
@@ -6949,134 +6949,134 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="C25" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1048545" ht="15.75" customHeight="1"/>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">NOW()</f>
-        <v>43997.892521643516</v>
+        <v>44000.798659259257</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>62</v>

--- a/config/default/forms/app/peer_calendar.xlsx
+++ b/config/default/forms/app/peer_calendar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hts\kpif release\kpif and properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hts\hts_kpif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C660E15-C411-47A5-AA7D-4871CE1FA14A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD7155F-983B-43F6-A6D4-689057F186DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="374">
   <si>
     <t>type</t>
   </si>
@@ -1110,9 +1110,6 @@
     <t>No. of lubes distributed (Sachets):</t>
   </si>
   <si>
-    <t>Value cannot be more than 1000 pieces.</t>
-  </si>
-  <si>
     <t>month-year</t>
   </si>
   <si>
@@ -1128,12 +1125,6 @@
     <t>What services/goods did you receive last month?*</t>
   </si>
   <si>
-    <t>Value cannot be more than 1000 Kits.</t>
-  </si>
-  <si>
-    <t>Value cannot be more than 1000 sachets.</t>
-  </si>
-  <si>
     <t>Number of HIV self-test kits distributed (Kits):</t>
   </si>
   <si>
@@ -1156,6 +1147,18 @@
   </si>
   <si>
     <t>Select which month you will be filling peer calendar:</t>
+  </si>
+  <si>
+    <t>. &gt;=1 and . &lt;= 200</t>
+  </si>
+  <si>
+    <t>Value cannot be more than 200 Kits.</t>
+  </si>
+  <si>
+    <t>Value cannot be more than 200 pieces.</t>
+  </si>
+  <si>
+    <t>Value cannot be more than 200 sachets.</t>
   </si>
 </sst>
 </file>
@@ -1300,1012 +1303,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="969">
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="860">
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -4572,6 +3570,726 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -4639,6 +4357,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -4699,6 +4424,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -4759,6 +4491,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -4859,6 +4598,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -4884,6 +4630,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
@@ -4920,6 +4676,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
@@ -4939,11 +4715,52 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
@@ -5004,6 +4821,40 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
@@ -5040,6 +4891,106 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
@@ -5064,6 +5015,40 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
@@ -5124,6 +5109,40 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
@@ -5184,6 +5203,40 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
@@ -5244,6 +5297,40 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
@@ -5299,6 +5386,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -5307,6 +5411,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -5347,6 +5461,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
@@ -5373,6 +5537,50 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -5384,10 +5592,91 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
@@ -5433,6 +5722,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -5441,6 +5747,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -5481,6 +5797,106 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
@@ -5500,6 +5916,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -5508,6 +5941,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -5572,6 +6015,40 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
@@ -5607,13 +6084,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -5644,6 +6114,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -5685,16 +6179,90 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFB7B7B7"/>
       </font>
       <fill>
@@ -5724,6 +6292,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -5732,15 +6317,132 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -5766,6 +6468,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -5776,10 +6498,91 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
@@ -6015,1839 +6818,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10887,10 +9857,10 @@
   <dimension ref="A1:Y151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A99"/>
+      <selection pane="bottomRight" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11863,14 +10833,14 @@
         <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>57</v>
@@ -11997,7 +10967,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>63</v>
@@ -12098,7 +11068,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
@@ -12170,7 +11140,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="7"/>
@@ -12242,7 +11212,7 @@
         <v>78</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="7"/>
@@ -12347,7 +11317,7 @@
         <v>334</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>56</v>
@@ -12414,7 +11384,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>91</v>
@@ -12510,7 +11480,7 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -12547,10 +11517,10 @@
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -12584,10 +11554,10 @@
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -12621,10 +11591,10 @@
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -12644,7 +11614,7 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25" ht="27">
+    <row r="52" spans="1:25" ht="13.5">
       <c r="A52" s="5" t="s">
         <v>67</v>
       </c>
@@ -12658,10 +11628,10 @@
       <c r="E52" s="7"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -12757,16 +11727,16 @@
         <v>103</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -12961,7 +11931,7 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -12998,10 +11968,10 @@
       <c r="E62" s="7"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -13035,10 +12005,10 @@
       <c r="E63" s="7"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -13072,10 +12042,10 @@
       <c r="E64" s="7"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -13095,7 +12065,7 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:25" ht="27">
+    <row r="65" spans="1:25" ht="13.5">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -13109,10 +12079,10 @@
       <c r="E65" s="7"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -13208,16 +12178,16 @@
         <v>103</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -13385,7 +12355,7 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -13422,10 +12392,10 @@
       <c r="E74" s="7"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -13459,10 +12429,10 @@
       <c r="E75" s="7"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -13496,10 +12466,10 @@
       <c r="E76" s="7"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -13519,7 +12489,7 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:25" ht="27">
+    <row r="77" spans="1:25" ht="13.5">
       <c r="A77" s="5" t="s">
         <v>67</v>
       </c>
@@ -13533,10 +12503,10 @@
       <c r="E77" s="7"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -13632,16 +12602,16 @@
         <v>103</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="7"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -13809,7 +12779,7 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -13846,10 +12816,10 @@
       <c r="E86" s="7"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -13883,10 +12853,10 @@
       <c r="E87" s="7"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -13920,10 +12890,10 @@
       <c r="E88" s="7"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -13943,7 +12913,7 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:25" ht="27">
+    <row r="89" spans="1:25" ht="13.5">
       <c r="A89" s="5" t="s">
         <v>67</v>
       </c>
@@ -13957,10 +12927,10 @@
       <c r="E89" s="7"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -14056,16 +13026,16 @@
         <v>103</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -16108,3437 +15078,3437 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="968" priority="240" operator="notEqual">
+    <cfRule type="cellIs" dxfId="859" priority="240" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="967" priority="241" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="858" priority="241" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="966" priority="242" operator="notEqual">
+    <cfRule type="cellIs" dxfId="857" priority="242" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="965" priority="243" operator="notEqual">
+    <cfRule type="cellIs" dxfId="856" priority="243" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="964" priority="244" operator="notEqual">
+    <cfRule type="cellIs" dxfId="855" priority="244" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="963" priority="245" operator="notEqual">
+    <cfRule type="cellIs" dxfId="854" priority="245" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="962" priority="246" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="853" priority="246" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="961" priority="247" operator="notEqual">
+    <cfRule type="cellIs" dxfId="852" priority="247" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="960" priority="248" operator="notEqual">
+    <cfRule type="cellIs" dxfId="851" priority="248" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="959" priority="249" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="850" priority="249" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="958" priority="250" operator="notEqual">
+    <cfRule type="cellIs" dxfId="849" priority="250" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" dxfId="957" priority="251" operator="notEqual">
+    <cfRule type="cellIs" dxfId="848" priority="251" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35 G36:H38">
-    <cfRule type="containsText" dxfId="956" priority="252" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="847" priority="252" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35 G36:H38 A45:Y48 A93:Y94 A81:Y82 A69:Y70 A56:Y56 A57:D57 F57:Y57">
-    <cfRule type="expression" dxfId="955" priority="253">
+    <cfRule type="expression" dxfId="846" priority="253">
       <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35 G36:H38 A45:Y48 A93:Y94 A81:Y82 A69:Y70 A56:Y56 A57:D57 F57:Y57">
-    <cfRule type="expression" dxfId="954" priority="254">
+    <cfRule type="expression" dxfId="845" priority="254">
       <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35 G36:H38">
-    <cfRule type="cellIs" dxfId="953" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="255" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35 I45:I48 I93:I94 I81:I82 I69:I70 I56:I57">
-    <cfRule type="expression" dxfId="952" priority="256">
+    <cfRule type="expression" dxfId="843" priority="256">
       <formula>AND($I35 = "", $A35 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35 C45:C48 C93:C94 C81:C82 C69:C70 C56:C57">
-    <cfRule type="expression" dxfId="951" priority="257">
+    <cfRule type="expression" dxfId="842" priority="257">
       <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35 B45:B48 B93:B94 B81:B82 B69:B70 B56:B57">
-    <cfRule type="expression" dxfId="950" priority="258">
+    <cfRule type="expression" dxfId="841" priority="258">
       <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="949" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="259" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H48 H35:H38 H93:H94 H81:H82 H69:H70 H56:H57">
-    <cfRule type="expression" dxfId="948" priority="260">
+    <cfRule type="expression" dxfId="839" priority="260">
       <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35 G36:H38 A45:Y48 A93:Y94 A81:Y82 A69:Y70 A56:Y56 A57:D57 F57:Y57">
-    <cfRule type="expression" dxfId="947" priority="261">
+    <cfRule type="expression" dxfId="838" priority="261">
       <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:Y35 G36:H38 A45:Y48 A93:Y94 A81:Y82 A69:Y70 A56:Y56 A57:D57 F57:Y57">
-    <cfRule type="expression" dxfId="946" priority="262">
+    <cfRule type="expression" dxfId="837" priority="262">
       <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:F36 I36:Y36">
-    <cfRule type="containsText" dxfId="945" priority="263" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="836" priority="263" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:F36 I36:Y36">
-    <cfRule type="expression" dxfId="944" priority="264">
+    <cfRule type="expression" dxfId="835" priority="264">
       <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:F36 I36:Y36">
-    <cfRule type="expression" dxfId="943" priority="265">
+    <cfRule type="expression" dxfId="834" priority="265">
       <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:F36 I36:Y36">
-    <cfRule type="cellIs" dxfId="942" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="266" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="941" priority="267">
+    <cfRule type="expression" dxfId="832" priority="267">
       <formula>AND($I36 = "", $A36 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="940" priority="268">
+    <cfRule type="expression" dxfId="831" priority="268">
       <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $C36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="939" priority="269">
+    <cfRule type="expression" dxfId="830" priority="269">
       <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $B36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="938" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="270" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:F36 I36:Y36">
-    <cfRule type="expression" dxfId="937" priority="271">
+    <cfRule type="expression" dxfId="828" priority="271">
       <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:F36 I36:Y36">
-    <cfRule type="expression" dxfId="936" priority="272">
+    <cfRule type="expression" dxfId="827" priority="272">
       <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:F37 I37:Y37">
-    <cfRule type="containsText" dxfId="935" priority="273" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="826" priority="273" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:F37 I37:Y37">
-    <cfRule type="expression" dxfId="934" priority="274">
+    <cfRule type="expression" dxfId="825" priority="274">
       <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:F37 I37:Y37">
-    <cfRule type="expression" dxfId="933" priority="275">
+    <cfRule type="expression" dxfId="824" priority="275">
       <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:F37 I37:Y37">
-    <cfRule type="cellIs" dxfId="932" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="276" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="931" priority="277">
+    <cfRule type="expression" dxfId="822" priority="277">
       <formula>AND($I37 = "", $A37 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="930" priority="278">
+    <cfRule type="expression" dxfId="821" priority="278">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="929" priority="279">
+    <cfRule type="expression" dxfId="820" priority="279">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="928" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="280" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:F37 I37:Y37">
-    <cfRule type="expression" dxfId="927" priority="281">
+    <cfRule type="expression" dxfId="818" priority="281">
       <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:F37 I37:Y37">
-    <cfRule type="expression" dxfId="926" priority="282">
+    <cfRule type="expression" dxfId="817" priority="282">
       <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:F38 I38:Y38">
-    <cfRule type="containsText" dxfId="925" priority="283" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="816" priority="283" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:F38 I38:Y38">
-    <cfRule type="expression" dxfId="924" priority="284">
+    <cfRule type="expression" dxfId="815" priority="284">
       <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:F38 I38:Y38">
-    <cfRule type="expression" dxfId="923" priority="285">
+    <cfRule type="expression" dxfId="814" priority="285">
       <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:F38 I38:Y38">
-    <cfRule type="cellIs" dxfId="922" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="286" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="921" priority="287">
+    <cfRule type="expression" dxfId="812" priority="287">
       <formula>AND($I38 = "", $A38 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="920" priority="288">
+    <cfRule type="expression" dxfId="811" priority="288">
       <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="919" priority="289">
+    <cfRule type="expression" dxfId="810" priority="289">
       <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="918" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="290" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:F38 I38:Y38">
-    <cfRule type="expression" dxfId="917" priority="291">
+    <cfRule type="expression" dxfId="808" priority="291">
       <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:F38 I38:Y38">
-    <cfRule type="expression" dxfId="916" priority="292">
+    <cfRule type="expression" dxfId="807" priority="292">
       <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="containsText" dxfId="915" priority="293" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="806" priority="293" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="expression" dxfId="914" priority="294">
+    <cfRule type="expression" dxfId="805" priority="294">
       <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="expression" dxfId="913" priority="295">
+    <cfRule type="expression" dxfId="804" priority="295">
       <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="cellIs" dxfId="912" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="296" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="911" priority="297">
+    <cfRule type="expression" dxfId="802" priority="297">
       <formula>AND($I39 = "", $A39 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="910" priority="298">
+    <cfRule type="expression" dxfId="801" priority="298">
       <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="909" priority="299">
+    <cfRule type="expression" dxfId="800" priority="299">
       <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="908" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="300" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="907" priority="301">
+    <cfRule type="expression" dxfId="798" priority="301">
       <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="expression" dxfId="906" priority="302">
+    <cfRule type="expression" dxfId="797" priority="302">
       <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="expression" dxfId="905" priority="303">
+    <cfRule type="expression" dxfId="796" priority="303">
       <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:Y40">
-    <cfRule type="containsText" dxfId="904" priority="304" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="795" priority="304" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:Y40">
-    <cfRule type="expression" dxfId="903" priority="305">
+    <cfRule type="expression" dxfId="794" priority="305">
       <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:Y40">
-    <cfRule type="expression" dxfId="902" priority="306">
+    <cfRule type="expression" dxfId="793" priority="306">
       <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:Y40">
-    <cfRule type="cellIs" dxfId="901" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="307" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="900" priority="308">
+    <cfRule type="expression" dxfId="791" priority="308">
       <formula>AND($I40 = "", $A40 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="899" priority="309">
+    <cfRule type="expression" dxfId="790" priority="309">
       <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="898" priority="310">
+    <cfRule type="expression" dxfId="789" priority="310">
       <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="897" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="311" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="896" priority="312">
+    <cfRule type="expression" dxfId="787" priority="312">
       <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:Y40">
-    <cfRule type="expression" dxfId="895" priority="313">
+    <cfRule type="expression" dxfId="786" priority="313">
       <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:Y40">
-    <cfRule type="expression" dxfId="894" priority="314">
+    <cfRule type="expression" dxfId="785" priority="314">
       <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="containsText" dxfId="893" priority="315" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="784" priority="315" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" dxfId="892" priority="316">
+    <cfRule type="expression" dxfId="783" priority="316">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" dxfId="891" priority="317">
+    <cfRule type="expression" dxfId="782" priority="317">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="cellIs" dxfId="890" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="318" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="889" priority="319">
+    <cfRule type="expression" dxfId="780" priority="319">
       <formula>AND($I41 = "", $A41 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="888" priority="320">
+    <cfRule type="expression" dxfId="779" priority="320">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="887" priority="321">
+    <cfRule type="expression" dxfId="778" priority="321">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="886" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="322" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="885" priority="323">
+    <cfRule type="expression" dxfId="776" priority="323">
       <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" dxfId="884" priority="324">
+    <cfRule type="expression" dxfId="775" priority="324">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" dxfId="883" priority="325">
+    <cfRule type="expression" dxfId="774" priority="325">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="containsText" dxfId="882" priority="326" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="773" priority="326" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" dxfId="881" priority="327">
+    <cfRule type="expression" dxfId="772" priority="327">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" dxfId="880" priority="328">
+    <cfRule type="expression" dxfId="771" priority="328">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="cellIs" dxfId="879" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="329" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="878" priority="330">
+    <cfRule type="expression" dxfId="769" priority="330">
       <formula>AND($I42 = "", $A42 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="877" priority="331">
+    <cfRule type="expression" dxfId="768" priority="331">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="876" priority="332">
+    <cfRule type="expression" dxfId="767" priority="332">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="875" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="333" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="874" priority="334">
+    <cfRule type="expression" dxfId="765" priority="334">
       <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" dxfId="873" priority="335">
+    <cfRule type="expression" dxfId="764" priority="335">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" dxfId="872" priority="336">
+    <cfRule type="expression" dxfId="763" priority="336">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="containsText" dxfId="871" priority="337" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="762" priority="337" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="870" priority="338">
+    <cfRule type="expression" dxfId="761" priority="338">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="869" priority="339">
+    <cfRule type="expression" dxfId="760" priority="339">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="cellIs" dxfId="868" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="340" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="867" priority="341">
+    <cfRule type="expression" dxfId="758" priority="341">
       <formula>AND($I43 = "", $A43 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="866" priority="342">
+    <cfRule type="expression" dxfId="757" priority="342">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="865" priority="343">
+    <cfRule type="expression" dxfId="756" priority="343">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="864" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="344" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="863" priority="345">
+    <cfRule type="expression" dxfId="754" priority="345">
       <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="862" priority="346">
+    <cfRule type="expression" dxfId="753" priority="346">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="861" priority="347">
+    <cfRule type="expression" dxfId="752" priority="347">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="containsText" dxfId="860" priority="348" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="751" priority="348" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="cellIs" dxfId="859" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="349" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:Y48">
-    <cfRule type="containsText" dxfId="858" priority="350" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="749" priority="350" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:Y48">
-    <cfRule type="cellIs" dxfId="857" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="351" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="cellIs" dxfId="856" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="352" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:Y48">
-    <cfRule type="containsText" dxfId="855" priority="353" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="746" priority="353" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:Y48">
-    <cfRule type="cellIs" dxfId="854" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="354" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y99">
-    <cfRule type="expression" dxfId="853" priority="355">
+    <cfRule type="expression" dxfId="744" priority="355">
       <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y99">
-    <cfRule type="expression" dxfId="852" priority="356">
+    <cfRule type="expression" dxfId="743" priority="356">
       <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:I99">
-    <cfRule type="expression" dxfId="851" priority="357">
+    <cfRule type="expression" dxfId="742" priority="357">
       <formula>AND($I98 = "", $A98 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C99">
-    <cfRule type="expression" dxfId="850" priority="358">
+    <cfRule type="expression" dxfId="741" priority="358">
       <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $C98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:B99">
-    <cfRule type="expression" dxfId="849" priority="359">
+    <cfRule type="expression" dxfId="740" priority="359">
       <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $B98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98:H99">
-    <cfRule type="expression" dxfId="848" priority="360">
+    <cfRule type="expression" dxfId="739" priority="360">
       <formula>AND(NOT($G98 = ""), $H98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y99">
-    <cfRule type="expression" dxfId="847" priority="361">
+    <cfRule type="expression" dxfId="738" priority="361">
       <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y99">
-    <cfRule type="expression" dxfId="846" priority="362">
+    <cfRule type="expression" dxfId="737" priority="362">
       <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:F49 I49:Y49">
-    <cfRule type="containsText" dxfId="845" priority="363" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="736" priority="363" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:F49 I49:Y49">
-    <cfRule type="expression" dxfId="844" priority="364">
+    <cfRule type="expression" dxfId="735" priority="364">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:F49 I49:Y49">
-    <cfRule type="expression" dxfId="843" priority="365">
+    <cfRule type="expression" dxfId="734" priority="365">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:F49 I49:Y49">
-    <cfRule type="cellIs" dxfId="842" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="366" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="841" priority="367">
+    <cfRule type="expression" dxfId="732" priority="367">
       <formula>AND($I49 = "", $A49 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="840" priority="368">
+    <cfRule type="expression" dxfId="731" priority="368">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="839" priority="369">
+    <cfRule type="expression" dxfId="730" priority="369">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="838" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="370" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:F49 I49:Y49">
-    <cfRule type="expression" dxfId="837" priority="371">
+    <cfRule type="expression" dxfId="728" priority="371">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:F49 I49:Y49">
-    <cfRule type="expression" dxfId="836" priority="372">
+    <cfRule type="expression" dxfId="727" priority="372">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:F50 I50:Y50">
-    <cfRule type="containsText" dxfId="835" priority="373" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="726" priority="373" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:F50 I50:Y50">
-    <cfRule type="expression" dxfId="834" priority="374">
+    <cfRule type="expression" dxfId="725" priority="374">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:F50 I50:Y50">
-    <cfRule type="expression" dxfId="833" priority="375">
+    <cfRule type="expression" dxfId="724" priority="375">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:F50 I50:Y50">
-    <cfRule type="cellIs" dxfId="832" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="376" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="831" priority="377">
+    <cfRule type="expression" dxfId="722" priority="377">
       <formula>AND($I50 = "", $A50 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="830" priority="378">
+    <cfRule type="expression" dxfId="721" priority="378">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="829" priority="379">
+    <cfRule type="expression" dxfId="720" priority="379">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="828" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="380" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:F50 I50:Y50">
-    <cfRule type="expression" dxfId="827" priority="381">
+    <cfRule type="expression" dxfId="718" priority="381">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:F50 I50:Y50">
-    <cfRule type="expression" dxfId="826" priority="382">
+    <cfRule type="expression" dxfId="717" priority="382">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:F51 I51:Y51">
-    <cfRule type="containsText" dxfId="825" priority="383" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="716" priority="383" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:F51 I51:Y51">
-    <cfRule type="expression" dxfId="824" priority="384">
+    <cfRule type="expression" dxfId="715" priority="384">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:F51 I51:Y51">
-    <cfRule type="expression" dxfId="823" priority="385">
+    <cfRule type="expression" dxfId="714" priority="385">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:F51 I51:Y51">
-    <cfRule type="cellIs" dxfId="822" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="386" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="821" priority="387">
+    <cfRule type="expression" dxfId="712" priority="387">
       <formula>AND($I51 = "", $A51 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="820" priority="388">
+    <cfRule type="expression" dxfId="711" priority="388">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="819" priority="389">
+    <cfRule type="expression" dxfId="710" priority="389">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="818" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="390" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:F51 I51:Y51">
-    <cfRule type="expression" dxfId="817" priority="391">
+    <cfRule type="expression" dxfId="708" priority="391">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:F51 I51:Y51">
-    <cfRule type="expression" dxfId="816" priority="392">
+    <cfRule type="expression" dxfId="707" priority="392">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:F52 I52:Y52">
-    <cfRule type="containsText" dxfId="815" priority="393" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="706" priority="393" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:F52 I52:Y52">
-    <cfRule type="expression" dxfId="814" priority="394">
+    <cfRule type="expression" dxfId="705" priority="394">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:F52 I52:Y52">
-    <cfRule type="expression" dxfId="813" priority="395">
+    <cfRule type="expression" dxfId="704" priority="395">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:F52 I52:Y52">
-    <cfRule type="cellIs" dxfId="812" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="396" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="811" priority="397">
+    <cfRule type="expression" dxfId="702" priority="397">
       <formula>AND($I52 = "", $A52 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="810" priority="398">
+    <cfRule type="expression" dxfId="701" priority="398">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="809" priority="399">
+    <cfRule type="expression" dxfId="700" priority="399">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="808" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="400" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:F52 I52:Y52">
-    <cfRule type="expression" dxfId="807" priority="401">
+    <cfRule type="expression" dxfId="698" priority="401">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:F52 I52:Y52">
-    <cfRule type="expression" dxfId="806" priority="402">
+    <cfRule type="expression" dxfId="697" priority="402">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="containsText" dxfId="805" priority="403" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="696" priority="403" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" dxfId="804" priority="404">
+    <cfRule type="expression" dxfId="695" priority="404">
       <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" dxfId="803" priority="405">
+    <cfRule type="expression" dxfId="694" priority="405">
       <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="cellIs" dxfId="802" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="406" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="801" priority="407">
+    <cfRule type="expression" dxfId="692" priority="407">
       <formula>AND($I53 = "", $A53 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="800" priority="408">
+    <cfRule type="expression" dxfId="691" priority="408">
       <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="799" priority="409">
+    <cfRule type="expression" dxfId="690" priority="409">
       <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="798" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="410" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="797" priority="411">
+    <cfRule type="expression" dxfId="688" priority="411">
       <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" dxfId="796" priority="412">
+    <cfRule type="expression" dxfId="687" priority="412">
       <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:Y53">
-    <cfRule type="expression" dxfId="795" priority="413">
+    <cfRule type="expression" dxfId="686" priority="413">
       <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:D57 F57:Y57">
-    <cfRule type="containsText" dxfId="794" priority="414" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="685" priority="414" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:D57 F57:Y57">
-    <cfRule type="cellIs" dxfId="793" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="415" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="792" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="416" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:D57 F57:Y57">
-    <cfRule type="containsText" dxfId="791" priority="417" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="682" priority="417" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:D57 F57:Y57">
-    <cfRule type="cellIs" dxfId="790" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="418" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:Y56 A57:D57 F57:Y57">
-    <cfRule type="containsText" dxfId="789" priority="419" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="680" priority="419" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:Y56 A57:D57 F57:Y57">
-    <cfRule type="cellIs" dxfId="788" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="420" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A57">
-    <cfRule type="cellIs" dxfId="787" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="421" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:Y56 A57:D57 F57:Y57">
-    <cfRule type="containsText" dxfId="786" priority="422" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="677" priority="422" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:Y56 A57:D57 F57:Y57">
-    <cfRule type="cellIs" dxfId="785" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="423" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:F55 I55:Y55">
-    <cfRule type="containsText" dxfId="784" priority="424" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="675" priority="424" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:F55 I55:Y55">
-    <cfRule type="expression" dxfId="783" priority="425">
+    <cfRule type="expression" dxfId="674" priority="425">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:F55 I55:Y55">
-    <cfRule type="expression" dxfId="782" priority="426">
+    <cfRule type="expression" dxfId="673" priority="426">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:F55 I55:Y55">
-    <cfRule type="cellIs" dxfId="781" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="427" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="780" priority="428">
+    <cfRule type="expression" dxfId="671" priority="428">
       <formula>AND($I55 = "", $A55 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="779" priority="429">
+    <cfRule type="expression" dxfId="670" priority="429">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="778" priority="430">
+    <cfRule type="expression" dxfId="669" priority="430">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="777" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="431" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:F55 I55:Y55">
-    <cfRule type="expression" dxfId="776" priority="432">
+    <cfRule type="expression" dxfId="667" priority="432">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:F55 I55:Y55">
-    <cfRule type="expression" dxfId="775" priority="433">
+    <cfRule type="expression" dxfId="666" priority="433">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:Y60">
-    <cfRule type="containsText" dxfId="774" priority="434" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="665" priority="434" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:Y60">
-    <cfRule type="expression" dxfId="773" priority="435">
+    <cfRule type="expression" dxfId="664" priority="435">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:Y60">
-    <cfRule type="expression" dxfId="772" priority="436">
+    <cfRule type="expression" dxfId="663" priority="436">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:Y60">
-    <cfRule type="cellIs" dxfId="771" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="437" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I60">
-    <cfRule type="expression" dxfId="770" priority="438">
+    <cfRule type="expression" dxfId="661" priority="438">
       <formula>AND($I58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C60">
-    <cfRule type="expression" dxfId="769" priority="439">
+    <cfRule type="expression" dxfId="660" priority="439">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B60">
-    <cfRule type="expression" dxfId="768" priority="440">
+    <cfRule type="expression" dxfId="659" priority="440">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A60">
-    <cfRule type="cellIs" dxfId="767" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="441" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H60">
-    <cfRule type="expression" dxfId="766" priority="442">
+    <cfRule type="expression" dxfId="657" priority="442">
       <formula>AND(NOT($G58 = ""), $H58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:Y60">
-    <cfRule type="expression" dxfId="765" priority="443">
+    <cfRule type="expression" dxfId="656" priority="443">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:Y60">
-    <cfRule type="expression" dxfId="764" priority="444">
+    <cfRule type="expression" dxfId="655" priority="444">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:Y60">
-    <cfRule type="containsText" dxfId="763" priority="445" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="654" priority="445" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:Y60">
-    <cfRule type="cellIs" dxfId="762" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="446" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="containsText" dxfId="761" priority="447" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="652" priority="447" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="expression" dxfId="760" priority="448">
+    <cfRule type="expression" dxfId="651" priority="448">
       <formula>AND($A97="begin group", NOT($B97 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="expression" dxfId="759" priority="449">
+    <cfRule type="expression" dxfId="650" priority="449">
       <formula>AND($A97="end group", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="cellIs" dxfId="758" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="450" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="expression" dxfId="757" priority="451">
+    <cfRule type="expression" dxfId="648" priority="451">
       <formula>AND($I97 = "", $A97 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="756" priority="452">
+    <cfRule type="expression" dxfId="647" priority="452">
       <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $C97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="755" priority="453">
+    <cfRule type="expression" dxfId="646" priority="453">
       <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $B97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="cellIs" dxfId="754" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="454" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="expression" dxfId="753" priority="455">
+    <cfRule type="expression" dxfId="644" priority="455">
       <formula>AND(NOT($G97 = ""), $H97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="expression" dxfId="752" priority="456">
+    <cfRule type="expression" dxfId="643" priority="456">
       <formula>AND($A97="begin repeat", NOT($B97 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:Y97">
-    <cfRule type="expression" dxfId="751" priority="457">
+    <cfRule type="expression" dxfId="642" priority="457">
       <formula>AND($A97="end repeat", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="containsText" dxfId="750" priority="458" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="641" priority="458" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:Y29">
-    <cfRule type="cellIs" dxfId="749" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="459" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="748" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="460" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:Y61">
-    <cfRule type="expression" dxfId="747" priority="461">
+    <cfRule type="expression" dxfId="638" priority="461">
       <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:Y61">
-    <cfRule type="expression" dxfId="746" priority="462">
+    <cfRule type="expression" dxfId="637" priority="462">
       <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="745" priority="463">
+    <cfRule type="expression" dxfId="636" priority="463">
       <formula>AND($I61 = "", $A61 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="744" priority="464">
+    <cfRule type="expression" dxfId="635" priority="464">
       <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="743" priority="465">
+    <cfRule type="expression" dxfId="634" priority="465">
       <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $B61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="expression" dxfId="742" priority="466">
+    <cfRule type="expression" dxfId="633" priority="466">
       <formula>AND(NOT($G61 = ""), $H61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:Y61">
-    <cfRule type="expression" dxfId="741" priority="467">
+    <cfRule type="expression" dxfId="632" priority="467">
       <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:Y61">
-    <cfRule type="expression" dxfId="740" priority="468">
+    <cfRule type="expression" dxfId="631" priority="468">
       <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:Y61">
-    <cfRule type="containsText" dxfId="739" priority="469" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="630" priority="469" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:Y61">
-    <cfRule type="cellIs" dxfId="738" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="470" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="737" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="471" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:Y61">
-    <cfRule type="containsText" dxfId="736" priority="472" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="627" priority="472" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:Y61">
-    <cfRule type="cellIs" dxfId="735" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="473" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F62 I62:Y62">
-    <cfRule type="containsText" dxfId="734" priority="474" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="625" priority="474" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F62 I62:Y62">
-    <cfRule type="expression" dxfId="733" priority="475">
+    <cfRule type="expression" dxfId="624" priority="475">
       <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F62 I62:Y62">
-    <cfRule type="expression" dxfId="732" priority="476">
+    <cfRule type="expression" dxfId="623" priority="476">
       <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F62 I62:Y62">
-    <cfRule type="cellIs" dxfId="731" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="477" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="730" priority="478">
+    <cfRule type="expression" dxfId="621" priority="478">
       <formula>AND($I62 = "", $A62 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="729" priority="479">
+    <cfRule type="expression" dxfId="620" priority="479">
       <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="728" priority="480">
+    <cfRule type="expression" dxfId="619" priority="480">
       <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $B62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="727" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="481" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F62 I62:Y62">
-    <cfRule type="expression" dxfId="726" priority="482">
+    <cfRule type="expression" dxfId="617" priority="482">
       <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F62 I62:Y62">
-    <cfRule type="expression" dxfId="725" priority="483">
+    <cfRule type="expression" dxfId="616" priority="483">
       <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:F63 I63:Y63">
-    <cfRule type="containsText" dxfId="724" priority="484" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="615" priority="484" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:F63 I63:Y63">
-    <cfRule type="expression" dxfId="723" priority="485">
+    <cfRule type="expression" dxfId="614" priority="485">
       <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:F63 I63:Y63">
-    <cfRule type="expression" dxfId="722" priority="486">
+    <cfRule type="expression" dxfId="613" priority="486">
       <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:F63 I63:Y63">
-    <cfRule type="cellIs" dxfId="721" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="487" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="720" priority="488">
+    <cfRule type="expression" dxfId="611" priority="488">
       <formula>AND($I63 = "", $A63 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="719" priority="489">
+    <cfRule type="expression" dxfId="610" priority="489">
       <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="718" priority="490">
+    <cfRule type="expression" dxfId="609" priority="490">
       <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="717" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="491" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:F63 I63:Y63">
-    <cfRule type="expression" dxfId="716" priority="492">
+    <cfRule type="expression" dxfId="607" priority="492">
       <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:F63 I63:Y63">
-    <cfRule type="expression" dxfId="715" priority="493">
+    <cfRule type="expression" dxfId="606" priority="493">
       <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:F64 I64:Y64">
-    <cfRule type="containsText" dxfId="714" priority="494" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="605" priority="494" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:F64 I64:Y64">
-    <cfRule type="expression" dxfId="713" priority="495">
+    <cfRule type="expression" dxfId="604" priority="495">
       <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:F64 I64:Y64">
-    <cfRule type="expression" dxfId="712" priority="496">
+    <cfRule type="expression" dxfId="603" priority="496">
       <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:F64 I64:Y64">
-    <cfRule type="cellIs" dxfId="711" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="497" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="710" priority="498">
+    <cfRule type="expression" dxfId="601" priority="498">
       <formula>AND($I64 = "", $A64 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="709" priority="499">
+    <cfRule type="expression" dxfId="600" priority="499">
       <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="708" priority="500">
+    <cfRule type="expression" dxfId="599" priority="500">
       <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="707" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="501" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:F64 I64:Y64">
-    <cfRule type="expression" dxfId="706" priority="502">
+    <cfRule type="expression" dxfId="597" priority="502">
       <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:F64 I64:Y64">
-    <cfRule type="expression" dxfId="705" priority="503">
+    <cfRule type="expression" dxfId="596" priority="503">
       <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:F65 I65:Y65">
-    <cfRule type="containsText" dxfId="704" priority="504" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="595" priority="504" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:F65 I65:Y65">
-    <cfRule type="expression" dxfId="703" priority="505">
+    <cfRule type="expression" dxfId="594" priority="505">
       <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:F65 I65:Y65">
-    <cfRule type="expression" dxfId="702" priority="506">
+    <cfRule type="expression" dxfId="593" priority="506">
       <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:F65 I65:Y65">
-    <cfRule type="cellIs" dxfId="701" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="507" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="700" priority="508">
+    <cfRule type="expression" dxfId="591" priority="508">
       <formula>AND($I65 = "", $A65 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="699" priority="509">
+    <cfRule type="expression" dxfId="590" priority="509">
       <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="698" priority="510">
+    <cfRule type="expression" dxfId="589" priority="510">
       <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="697" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="511" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:F65 I65:Y65">
-    <cfRule type="expression" dxfId="696" priority="512">
+    <cfRule type="expression" dxfId="587" priority="512">
       <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:F65 I65:Y65">
-    <cfRule type="expression" dxfId="695" priority="513">
+    <cfRule type="expression" dxfId="586" priority="513">
       <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:G66 I66:Y66">
-    <cfRule type="containsText" dxfId="694" priority="514" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="585" priority="514" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:G66 I66:Y66">
-    <cfRule type="expression" dxfId="693" priority="515">
+    <cfRule type="expression" dxfId="584" priority="515">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:G66 I66:Y66">
-    <cfRule type="expression" dxfId="692" priority="516">
+    <cfRule type="expression" dxfId="583" priority="516">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:G66 I66:Y66">
-    <cfRule type="cellIs" dxfId="691" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="517" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="expression" dxfId="690" priority="518">
+    <cfRule type="expression" dxfId="581" priority="518">
       <formula>AND($I66 = "", $A66 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="689" priority="519">
+    <cfRule type="expression" dxfId="580" priority="519">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="688" priority="520">
+    <cfRule type="expression" dxfId="579" priority="520">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="687" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="521" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:G66 I66:Y66">
-    <cfRule type="expression" dxfId="685" priority="523">
+    <cfRule type="expression" dxfId="577" priority="523">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:G66 I66:Y66">
-    <cfRule type="expression" dxfId="684" priority="524">
+    <cfRule type="expression" dxfId="576" priority="524">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:Y70">
-    <cfRule type="containsText" dxfId="683" priority="525" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="575" priority="525" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:Y70">
-    <cfRule type="cellIs" dxfId="682" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="526" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="681" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="527" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:Y70">
-    <cfRule type="containsText" dxfId="680" priority="528" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="572" priority="528" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:Y70">
-    <cfRule type="cellIs" dxfId="679" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="529" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:Y70">
-    <cfRule type="containsText" dxfId="678" priority="530" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="570" priority="530" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:Y70">
-    <cfRule type="cellIs" dxfId="677" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="531" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A70">
-    <cfRule type="cellIs" dxfId="676" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="532" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:Y70">
-    <cfRule type="containsText" dxfId="675" priority="533" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="567" priority="533" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:Y70">
-    <cfRule type="cellIs" dxfId="674" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="534" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:F68 I68:Y68">
-    <cfRule type="containsText" dxfId="673" priority="535" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="565" priority="535" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:F68 I68:Y68">
-    <cfRule type="expression" dxfId="672" priority="536">
+    <cfRule type="expression" dxfId="564" priority="536">
       <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:F68 I68:Y68">
-    <cfRule type="expression" dxfId="671" priority="537">
+    <cfRule type="expression" dxfId="563" priority="537">
       <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:F68 I68:Y68">
-    <cfRule type="cellIs" dxfId="670" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="538" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="669" priority="539">
+    <cfRule type="expression" dxfId="561" priority="539">
       <formula>AND($I68 = "", $A68 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="668" priority="540">
+    <cfRule type="expression" dxfId="560" priority="540">
       <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="667" priority="541">
+    <cfRule type="expression" dxfId="559" priority="541">
       <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" dxfId="666" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="542" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:F68 I68:Y68">
-    <cfRule type="expression" dxfId="665" priority="543">
+    <cfRule type="expression" dxfId="557" priority="543">
       <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:F68 I68:Y68">
-    <cfRule type="expression" dxfId="664" priority="544">
+    <cfRule type="expression" dxfId="556" priority="544">
       <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="containsText" dxfId="663" priority="545" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="555" priority="545" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="expression" dxfId="662" priority="546">
+    <cfRule type="expression" dxfId="554" priority="546">
       <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="expression" dxfId="661" priority="547">
+    <cfRule type="expression" dxfId="553" priority="547">
       <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="cellIs" dxfId="660" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="548" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:I72">
-    <cfRule type="expression" dxfId="659" priority="549">
+    <cfRule type="expression" dxfId="551" priority="549">
       <formula>AND($I71 = "", $A71 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="expression" dxfId="658" priority="550">
+    <cfRule type="expression" dxfId="550" priority="550">
       <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72">
-    <cfRule type="expression" dxfId="657" priority="551">
+    <cfRule type="expression" dxfId="549" priority="551">
       <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:A72">
-    <cfRule type="cellIs" dxfId="656" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="552" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H72">
-    <cfRule type="expression" dxfId="655" priority="553">
+    <cfRule type="expression" dxfId="547" priority="553">
       <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="expression" dxfId="654" priority="554">
+    <cfRule type="expression" dxfId="546" priority="554">
       <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="expression" dxfId="653" priority="555">
+    <cfRule type="expression" dxfId="545" priority="555">
       <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="containsText" dxfId="652" priority="556" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="544" priority="556" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="cellIs" dxfId="651" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="557" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:Y73">
-    <cfRule type="expression" dxfId="650" priority="558">
+    <cfRule type="expression" dxfId="542" priority="558">
       <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:Y73">
-    <cfRule type="expression" dxfId="649" priority="559">
+    <cfRule type="expression" dxfId="541" priority="559">
       <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="648" priority="560">
+    <cfRule type="expression" dxfId="540" priority="560">
       <formula>AND($I73 = "", $A73 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="647" priority="561">
+    <cfRule type="expression" dxfId="539" priority="561">
       <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $C73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="646" priority="562">
+    <cfRule type="expression" dxfId="538" priority="562">
       <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $B73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="expression" dxfId="645" priority="563">
+    <cfRule type="expression" dxfId="537" priority="563">
       <formula>AND(NOT($G73 = ""), $H73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:Y73">
-    <cfRule type="expression" dxfId="644" priority="564">
+    <cfRule type="expression" dxfId="536" priority="564">
       <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:Y73">
-    <cfRule type="expression" dxfId="643" priority="565">
+    <cfRule type="expression" dxfId="535" priority="565">
       <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:Y73">
-    <cfRule type="containsText" dxfId="642" priority="566" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="534" priority="566" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:Y73">
-    <cfRule type="cellIs" dxfId="641" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="567" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="640" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="568" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:Y73">
-    <cfRule type="containsText" dxfId="639" priority="569" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="531" priority="569" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:Y73">
-    <cfRule type="cellIs" dxfId="638" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="570" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:F74 I74:Y74">
-    <cfRule type="containsText" dxfId="637" priority="571" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="529" priority="571" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:F74 I74:Y74">
-    <cfRule type="expression" dxfId="636" priority="572">
+    <cfRule type="expression" dxfId="528" priority="572">
       <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:F74 I74:Y74">
-    <cfRule type="expression" dxfId="635" priority="573">
+    <cfRule type="expression" dxfId="527" priority="573">
       <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:F74 I74:Y74">
-    <cfRule type="cellIs" dxfId="634" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="574" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="expression" dxfId="633" priority="575">
+    <cfRule type="expression" dxfId="525" priority="575">
       <formula>AND($I74 = "", $A74 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="632" priority="576">
+    <cfRule type="expression" dxfId="524" priority="576">
       <formula>AND(AND(NOT($A74 = "end group"), NOT($A74 = "end repeat"), NOT($A74 = "")), $C74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="631" priority="577">
+    <cfRule type="expression" dxfId="523" priority="577">
       <formula>AND(AND(NOT($A74 = "end group"), NOT($A74 = "end repeat"), NOT($A74 = "")), $B74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="630" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="578" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:F74 I74:Y74">
-    <cfRule type="expression" dxfId="629" priority="579">
+    <cfRule type="expression" dxfId="521" priority="579">
       <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:F74 I74:Y74">
-    <cfRule type="expression" dxfId="628" priority="580">
+    <cfRule type="expression" dxfId="520" priority="580">
       <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:F75 I75:Y75">
-    <cfRule type="containsText" dxfId="627" priority="581" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="519" priority="581" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:F75 I75:Y75">
-    <cfRule type="expression" dxfId="626" priority="582">
+    <cfRule type="expression" dxfId="518" priority="582">
       <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:F75 I75:Y75">
-    <cfRule type="expression" dxfId="625" priority="583">
+    <cfRule type="expression" dxfId="517" priority="583">
       <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:F75 I75:Y75">
-    <cfRule type="cellIs" dxfId="624" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="584" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="expression" dxfId="623" priority="585">
+    <cfRule type="expression" dxfId="515" priority="585">
       <formula>AND($I75 = "", $A75 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="622" priority="586">
+    <cfRule type="expression" dxfId="514" priority="586">
       <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="expression" dxfId="621" priority="587">
+    <cfRule type="expression" dxfId="513" priority="587">
       <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $B75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="620" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="588" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:F75 I75:Y75">
-    <cfRule type="expression" dxfId="619" priority="589">
+    <cfRule type="expression" dxfId="511" priority="589">
       <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:F75 I75:Y75">
-    <cfRule type="expression" dxfId="618" priority="590">
+    <cfRule type="expression" dxfId="510" priority="590">
       <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:F76 I76:Y76">
-    <cfRule type="containsText" dxfId="617" priority="591" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="509" priority="591" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:F76 I76:Y76">
-    <cfRule type="expression" dxfId="616" priority="592">
+    <cfRule type="expression" dxfId="508" priority="592">
       <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:F76 I76:Y76">
-    <cfRule type="expression" dxfId="615" priority="593">
+    <cfRule type="expression" dxfId="507" priority="593">
       <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:F76 I76:Y76">
-    <cfRule type="cellIs" dxfId="614" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="594" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="613" priority="595">
+    <cfRule type="expression" dxfId="505" priority="595">
       <formula>AND($I76 = "", $A76 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="expression" dxfId="612" priority="596">
+    <cfRule type="expression" dxfId="504" priority="596">
       <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $C76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="611" priority="597">
+    <cfRule type="expression" dxfId="503" priority="597">
       <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $B76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="610" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="598" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:F76 I76:Y76">
-    <cfRule type="expression" dxfId="609" priority="599">
+    <cfRule type="expression" dxfId="501" priority="599">
       <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:F76 I76:Y76">
-    <cfRule type="expression" dxfId="608" priority="600">
+    <cfRule type="expression" dxfId="500" priority="600">
       <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:F77 I77:Y77">
-    <cfRule type="containsText" dxfId="607" priority="601" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="499" priority="601" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:F77 I77:Y77">
-    <cfRule type="expression" dxfId="606" priority="602">
+    <cfRule type="expression" dxfId="498" priority="602">
       <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:F77 I77:Y77">
-    <cfRule type="expression" dxfId="605" priority="603">
+    <cfRule type="expression" dxfId="497" priority="603">
       <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:F77 I77:Y77">
-    <cfRule type="cellIs" dxfId="604" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="604" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="expression" dxfId="603" priority="605">
+    <cfRule type="expression" dxfId="495" priority="605">
       <formula>AND($I77 = "", $A77 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="602" priority="606">
+    <cfRule type="expression" dxfId="494" priority="606">
       <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $C77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="601" priority="607">
+    <cfRule type="expression" dxfId="493" priority="607">
       <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $B77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="600" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="608" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:F77 I77:Y77">
-    <cfRule type="expression" dxfId="599" priority="609">
+    <cfRule type="expression" dxfId="491" priority="609">
       <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:F77 I77:Y77">
-    <cfRule type="expression" dxfId="598" priority="610">
+    <cfRule type="expression" dxfId="490" priority="610">
       <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78 I78:Y78">
-    <cfRule type="containsText" dxfId="597" priority="611" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="489" priority="611" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78 I78:Y78">
-    <cfRule type="expression" dxfId="596" priority="612">
+    <cfRule type="expression" dxfId="488" priority="612">
       <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78 I78:Y78">
-    <cfRule type="expression" dxfId="595" priority="613">
+    <cfRule type="expression" dxfId="487" priority="613">
       <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78 I78:Y78">
-    <cfRule type="cellIs" dxfId="594" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="614" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="expression" dxfId="593" priority="615">
+    <cfRule type="expression" dxfId="485" priority="615">
       <formula>AND($I78 = "", $A78 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="592" priority="616">
+    <cfRule type="expression" dxfId="484" priority="616">
       <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $C78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="591" priority="617">
+    <cfRule type="expression" dxfId="483" priority="617">
       <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $B78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="590" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="618" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78 I78:Y78">
-    <cfRule type="expression" dxfId="588" priority="620">
+    <cfRule type="expression" dxfId="481" priority="620">
       <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G78 I78:Y78">
-    <cfRule type="expression" dxfId="587" priority="621">
+    <cfRule type="expression" dxfId="480" priority="621">
       <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:Y82">
-    <cfRule type="containsText" dxfId="586" priority="622" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="479" priority="622" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:Y82">
-    <cfRule type="cellIs" dxfId="585" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="623" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="584" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="624" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:Y82">
-    <cfRule type="containsText" dxfId="583" priority="625" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="476" priority="625" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:Y82">
-    <cfRule type="cellIs" dxfId="582" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="626" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:Y82">
-    <cfRule type="containsText" dxfId="581" priority="627" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="474" priority="627" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:Y82">
-    <cfRule type="cellIs" dxfId="580" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="628" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:A82">
-    <cfRule type="cellIs" dxfId="579" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="629" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:Y82">
-    <cfRule type="containsText" dxfId="578" priority="630" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="471" priority="630" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:Y82">
-    <cfRule type="cellIs" dxfId="577" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="631" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:F80 I80:Y80">
-    <cfRule type="containsText" dxfId="576" priority="632" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="469" priority="632" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:F80 I80:Y80">
-    <cfRule type="expression" dxfId="575" priority="633">
+    <cfRule type="expression" dxfId="468" priority="633">
       <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:F80 I80:Y80">
-    <cfRule type="expression" dxfId="574" priority="634">
+    <cfRule type="expression" dxfId="467" priority="634">
       <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:F80 I80:Y80">
-    <cfRule type="cellIs" dxfId="573" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="635" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="expression" dxfId="572" priority="636">
+    <cfRule type="expression" dxfId="465" priority="636">
       <formula>AND($I80 = "", $A80 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="571" priority="637">
+    <cfRule type="expression" dxfId="464" priority="637">
       <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $C80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="570" priority="638">
+    <cfRule type="expression" dxfId="463" priority="638">
       <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $B80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" dxfId="569" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="639" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:F80 I80:Y80">
-    <cfRule type="expression" dxfId="568" priority="640">
+    <cfRule type="expression" dxfId="461" priority="640">
       <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:F80 I80:Y80">
-    <cfRule type="expression" dxfId="567" priority="641">
+    <cfRule type="expression" dxfId="460" priority="641">
       <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="containsText" dxfId="566" priority="642" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="459" priority="642" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="expression" dxfId="565" priority="643">
+    <cfRule type="expression" dxfId="458" priority="643">
       <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="expression" dxfId="564" priority="644">
+    <cfRule type="expression" dxfId="457" priority="644">
       <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="cellIs" dxfId="563" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="645" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:I84">
-    <cfRule type="expression" dxfId="562" priority="646">
+    <cfRule type="expression" dxfId="455" priority="646">
       <formula>AND($I83 = "", $A83 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83:C84">
-    <cfRule type="expression" dxfId="561" priority="647">
+    <cfRule type="expression" dxfId="454" priority="647">
       <formula>AND(AND(NOT($A83 = "end group"), NOT($A83 = "end repeat"), NOT($A83 = "")), $C83 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B84">
-    <cfRule type="expression" dxfId="560" priority="648">
+    <cfRule type="expression" dxfId="453" priority="648">
       <formula>AND(AND(NOT($A83 = "end group"), NOT($A83 = "end repeat"), NOT($A83 = "")), $B83 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A84">
-    <cfRule type="cellIs" dxfId="559" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="649" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H84">
-    <cfRule type="expression" dxfId="558" priority="650">
+    <cfRule type="expression" dxfId="451" priority="650">
       <formula>AND(NOT($G83 = ""), $H83 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="expression" dxfId="557" priority="651">
+    <cfRule type="expression" dxfId="450" priority="651">
       <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="expression" dxfId="556" priority="652">
+    <cfRule type="expression" dxfId="449" priority="652">
       <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="containsText" dxfId="555" priority="653" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="448" priority="653" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="cellIs" dxfId="554" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="654" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
-    <cfRule type="expression" dxfId="553" priority="655">
+    <cfRule type="expression" dxfId="446" priority="655">
       <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
-    <cfRule type="expression" dxfId="552" priority="656">
+    <cfRule type="expression" dxfId="445" priority="656">
       <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="expression" dxfId="551" priority="657">
+    <cfRule type="expression" dxfId="444" priority="657">
       <formula>AND($I85 = "", $A85 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="550" priority="658">
+    <cfRule type="expression" dxfId="443" priority="658">
       <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $C85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="expression" dxfId="549" priority="659">
+    <cfRule type="expression" dxfId="442" priority="659">
       <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $B85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="expression" dxfId="548" priority="660">
+    <cfRule type="expression" dxfId="441" priority="660">
       <formula>AND(NOT($G85 = ""), $H85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
-    <cfRule type="expression" dxfId="547" priority="661">
+    <cfRule type="expression" dxfId="440" priority="661">
       <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
-    <cfRule type="expression" dxfId="546" priority="662">
+    <cfRule type="expression" dxfId="439" priority="662">
       <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
-    <cfRule type="containsText" dxfId="545" priority="663" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="438" priority="663" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
-    <cfRule type="cellIs" dxfId="544" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="664" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="543" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="665" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
-    <cfRule type="containsText" dxfId="542" priority="666" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="435" priority="666" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
-    <cfRule type="cellIs" dxfId="541" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="667" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:F86 I86:Y86">
-    <cfRule type="containsText" dxfId="540" priority="668" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="433" priority="668" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:F86 I86:Y86">
-    <cfRule type="expression" dxfId="539" priority="669">
+    <cfRule type="expression" dxfId="432" priority="669">
       <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:F86 I86:Y86">
-    <cfRule type="expression" dxfId="538" priority="670">
+    <cfRule type="expression" dxfId="431" priority="670">
       <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:F86 I86:Y86">
-    <cfRule type="cellIs" dxfId="537" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="671" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="expression" dxfId="536" priority="672">
+    <cfRule type="expression" dxfId="429" priority="672">
       <formula>AND($I86 = "", $A86 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="535" priority="673">
+    <cfRule type="expression" dxfId="428" priority="673">
       <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="534" priority="674">
+    <cfRule type="expression" dxfId="427" priority="674">
       <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $B86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" dxfId="533" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="675" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:F86 I86:Y86">
-    <cfRule type="expression" dxfId="532" priority="676">
+    <cfRule type="expression" dxfId="425" priority="676">
       <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:F86 I86:Y86">
-    <cfRule type="expression" dxfId="531" priority="677">
+    <cfRule type="expression" dxfId="424" priority="677">
       <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:F87 I87:Y87">
-    <cfRule type="containsText" dxfId="530" priority="678" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="423" priority="678" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:F87 I87:Y87">
-    <cfRule type="expression" dxfId="529" priority="679">
+    <cfRule type="expression" dxfId="422" priority="679">
       <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:F87 I87:Y87">
-    <cfRule type="expression" dxfId="528" priority="680">
+    <cfRule type="expression" dxfId="421" priority="680">
       <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:F87 I87:Y87">
-    <cfRule type="cellIs" dxfId="527" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="681" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="expression" dxfId="526" priority="682">
+    <cfRule type="expression" dxfId="419" priority="682">
       <formula>AND($I87 = "", $A87 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="525" priority="683">
+    <cfRule type="expression" dxfId="418" priority="683">
       <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="524" priority="684">
+    <cfRule type="expression" dxfId="417" priority="684">
       <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $B87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" dxfId="523" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="685" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:F87 I87:Y87">
-    <cfRule type="expression" dxfId="522" priority="686">
+    <cfRule type="expression" dxfId="415" priority="686">
       <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:F87 I87:Y87">
-    <cfRule type="expression" dxfId="521" priority="687">
+    <cfRule type="expression" dxfId="414" priority="687">
       <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:F88 I88:Y88">
-    <cfRule type="containsText" dxfId="520" priority="688" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="413" priority="688" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:F88 I88:Y88">
-    <cfRule type="expression" dxfId="519" priority="689">
+    <cfRule type="expression" dxfId="412" priority="689">
       <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:F88 I88:Y88">
-    <cfRule type="expression" dxfId="518" priority="690">
+    <cfRule type="expression" dxfId="411" priority="690">
       <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:F88 I88:Y88">
-    <cfRule type="cellIs" dxfId="517" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="691" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="expression" dxfId="516" priority="692">
+    <cfRule type="expression" dxfId="409" priority="692">
       <formula>AND($I88 = "", $A88 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="515" priority="693">
+    <cfRule type="expression" dxfId="408" priority="693">
       <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="514" priority="694">
+    <cfRule type="expression" dxfId="407" priority="694">
       <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $B88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" dxfId="513" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="695" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:F88 I88:Y88">
-    <cfRule type="expression" dxfId="512" priority="696">
+    <cfRule type="expression" dxfId="405" priority="696">
       <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:F88 I88:Y88">
-    <cfRule type="expression" dxfId="511" priority="697">
+    <cfRule type="expression" dxfId="404" priority="697">
       <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:F89 I89:Y89">
-    <cfRule type="containsText" dxfId="510" priority="698" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="403" priority="698" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:F89 I89:Y89">
-    <cfRule type="expression" dxfId="509" priority="699">
+    <cfRule type="expression" dxfId="402" priority="699">
       <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:F89 I89:Y89">
-    <cfRule type="expression" dxfId="508" priority="700">
+    <cfRule type="expression" dxfId="401" priority="700">
       <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:F89 I89:Y89">
-    <cfRule type="cellIs" dxfId="507" priority="701" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="701" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="expression" dxfId="506" priority="702">
+    <cfRule type="expression" dxfId="399" priority="702">
       <formula>AND($I89 = "", $A89 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="505" priority="703">
+    <cfRule type="expression" dxfId="398" priority="703">
       <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $C89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="504" priority="704">
+    <cfRule type="expression" dxfId="397" priority="704">
       <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $B89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" dxfId="503" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="705" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:F89 I89:Y89">
-    <cfRule type="expression" dxfId="502" priority="706">
+    <cfRule type="expression" dxfId="395" priority="706">
       <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:F89 I89:Y89">
-    <cfRule type="expression" dxfId="501" priority="707">
+    <cfRule type="expression" dxfId="394" priority="707">
       <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 I90:Y90">
-    <cfRule type="containsText" dxfId="500" priority="708" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="393" priority="708" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 I90:Y90">
-    <cfRule type="expression" dxfId="499" priority="709">
+    <cfRule type="expression" dxfId="392" priority="709">
       <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 I90:Y90">
-    <cfRule type="expression" dxfId="498" priority="710">
+    <cfRule type="expression" dxfId="391" priority="710">
       <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 I90:Y90">
-    <cfRule type="cellIs" dxfId="497" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="711" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="expression" dxfId="496" priority="712">
+    <cfRule type="expression" dxfId="389" priority="712">
       <formula>AND($I90 = "", $A90 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="495" priority="713">
+    <cfRule type="expression" dxfId="388" priority="713">
       <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $C90 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="494" priority="714">
+    <cfRule type="expression" dxfId="387" priority="714">
       <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $B90 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="493" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="715" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 I90:Y90">
-    <cfRule type="expression" dxfId="491" priority="717">
+    <cfRule type="expression" dxfId="385" priority="717">
       <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:G90 I90:Y90">
-    <cfRule type="expression" dxfId="490" priority="718">
+    <cfRule type="expression" dxfId="384" priority="718">
       <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="containsText" dxfId="489" priority="719" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="383" priority="719" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="cellIs" dxfId="488" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="720" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="cellIs" dxfId="487" priority="721" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="721" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="containsText" dxfId="486" priority="722" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="380" priority="722" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="cellIs" dxfId="485" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="723" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:Y94">
-    <cfRule type="containsText" dxfId="484" priority="724" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="378" priority="724" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:Y94">
-    <cfRule type="cellIs" dxfId="483" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="725" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A94">
-    <cfRule type="cellIs" dxfId="482" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="726" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:Y94">
-    <cfRule type="containsText" dxfId="481" priority="727" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="375" priority="727" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:Y94">
-    <cfRule type="cellIs" dxfId="480" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="728" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:F92 I92:Y92">
-    <cfRule type="containsText" dxfId="479" priority="729" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="373" priority="729" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:F92 I92:Y92">
-    <cfRule type="expression" dxfId="478" priority="730">
+    <cfRule type="expression" dxfId="372" priority="730">
       <formula>AND($A92="begin group", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:F92 I92:Y92">
-    <cfRule type="expression" dxfId="477" priority="731">
+    <cfRule type="expression" dxfId="371" priority="731">
       <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:F92 I92:Y92">
-    <cfRule type="cellIs" dxfId="476" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="732" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="expression" dxfId="475" priority="733">
+    <cfRule type="expression" dxfId="369" priority="733">
       <formula>AND($I92 = "", $A92 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="474" priority="734">
+    <cfRule type="expression" dxfId="368" priority="734">
       <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $C92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="473" priority="735">
+    <cfRule type="expression" dxfId="367" priority="735">
       <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $B92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="472" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="736" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:F92 I92:Y92">
-    <cfRule type="expression" dxfId="471" priority="737">
+    <cfRule type="expression" dxfId="365" priority="737">
       <formula>AND($A92="begin repeat", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:F92 I92:Y92">
-    <cfRule type="expression" dxfId="470" priority="738">
+    <cfRule type="expression" dxfId="364" priority="738">
       <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="containsText" dxfId="469" priority="739" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="363" priority="739" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="expression" dxfId="468" priority="740">
+    <cfRule type="expression" dxfId="362" priority="740">
       <formula>AND($A95="begin group", NOT($B95 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="expression" dxfId="467" priority="741">
+    <cfRule type="expression" dxfId="361" priority="741">
       <formula>AND($A95="end group", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="cellIs" dxfId="466" priority="742" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="742" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:I96">
-    <cfRule type="expression" dxfId="465" priority="743">
+    <cfRule type="expression" dxfId="359" priority="743">
       <formula>AND($I95 = "", $A95 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95:C96">
-    <cfRule type="expression" dxfId="464" priority="744">
+    <cfRule type="expression" dxfId="358" priority="744">
       <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $C95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B96">
-    <cfRule type="expression" dxfId="463" priority="745">
+    <cfRule type="expression" dxfId="357" priority="745">
       <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $B95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A96">
-    <cfRule type="cellIs" dxfId="462" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="746" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H96">
-    <cfRule type="expression" dxfId="461" priority="747">
+    <cfRule type="expression" dxfId="355" priority="747">
       <formula>AND(NOT($G95 = ""), $H95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="expression" dxfId="460" priority="748">
+    <cfRule type="expression" dxfId="354" priority="748">
       <formula>AND($A95="begin repeat", NOT($B95 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="expression" dxfId="459" priority="749">
+    <cfRule type="expression" dxfId="353" priority="749">
       <formula>AND($A95="end repeat", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="containsText" dxfId="458" priority="750" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="352" priority="750" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="cellIs" dxfId="457" priority="751" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="751" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="containsText" dxfId="456" priority="752" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="350" priority="752" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="455" priority="753">
+    <cfRule type="expression" dxfId="349" priority="753">
       <formula>AND($A151="begin group", NOT($B151 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="454" priority="754">
+    <cfRule type="expression" dxfId="348" priority="754">
       <formula>AND($A151="end group", $B151 = "", $C151 = "", $D151 = "", $E151 = "", $F151 = "", $G151 = "", $H151 = "", $I151 = "", $J151 = "", $K151 = "", $L151 = "", $M151 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="cellIs" dxfId="453" priority="755" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="755" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="cellIs" dxfId="452" priority="756" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="756" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="451" priority="757">
+    <cfRule type="expression" dxfId="345" priority="757">
       <formula>AND($A151="begin repeat", NOT($B151 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="450" priority="758">
+    <cfRule type="expression" dxfId="344" priority="758">
       <formula>AND($A151="end repeat", $B151 = "", $C151 = "", $D151 = "", $E151 = "", $F151 = "", $G151 = "", $H151 = "", $I151 = "", $J151 = "", $K151 = "", $L151 = "", $M151 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92 B55 B58:B60 B68 B71:B72 B80 B83:B84 B95:B97">
-    <cfRule type="expression" dxfId="449" priority="759">
+    <cfRule type="expression" dxfId="343" priority="759">
       <formula>COUNTIF($B$2:$B$1062,B55)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="containsText" dxfId="448" priority="760" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="342" priority="760" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="447" priority="761">
+    <cfRule type="expression" dxfId="341" priority="761">
       <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="446" priority="762">
+    <cfRule type="expression" dxfId="340" priority="762">
       <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="445" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="763" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="444" priority="765">
+    <cfRule type="expression" dxfId="338" priority="765">
       <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="443" priority="766">
+    <cfRule type="expression" dxfId="337" priority="766">
       <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="containsText" dxfId="442" priority="767" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="336" priority="767" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" dxfId="441" priority="768">
+    <cfRule type="expression" dxfId="335" priority="768">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" dxfId="440" priority="769">
+    <cfRule type="expression" dxfId="334" priority="769">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="cellIs" dxfId="439" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="770" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="438" priority="771">
+    <cfRule type="expression" dxfId="332" priority="771">
       <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" dxfId="437" priority="772">
+    <cfRule type="expression" dxfId="331" priority="772">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" dxfId="436" priority="773">
+    <cfRule type="expression" dxfId="330" priority="773">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="containsText" dxfId="435" priority="774" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="329" priority="774" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="expression" dxfId="434" priority="775">
+    <cfRule type="expression" dxfId="328" priority="775">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="expression" dxfId="433" priority="776">
+    <cfRule type="expression" dxfId="327" priority="776">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="cellIs" dxfId="432" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="777" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="431" priority="778">
+    <cfRule type="expression" dxfId="325" priority="778">
       <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="expression" dxfId="430" priority="779">
+    <cfRule type="expression" dxfId="324" priority="779">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="expression" dxfId="429" priority="780">
+    <cfRule type="expression" dxfId="323" priority="780">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="containsText" dxfId="428" priority="781" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="322" priority="781" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="expression" dxfId="427" priority="782">
+    <cfRule type="expression" dxfId="321" priority="782">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="expression" dxfId="426" priority="783">
+    <cfRule type="expression" dxfId="320" priority="783">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="cellIs" dxfId="425" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="784" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="424" priority="785">
+    <cfRule type="expression" dxfId="318" priority="785">
       <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="expression" dxfId="423" priority="786">
+    <cfRule type="expression" dxfId="317" priority="786">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="expression" dxfId="422" priority="787">
+    <cfRule type="expression" dxfId="316" priority="787">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="containsText" dxfId="421" priority="788" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="315" priority="788" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" dxfId="420" priority="789">
+    <cfRule type="expression" dxfId="314" priority="789">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" dxfId="419" priority="790">
+    <cfRule type="expression" dxfId="313" priority="790">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="cellIs" dxfId="418" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="791" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="417" priority="792">
+    <cfRule type="expression" dxfId="311" priority="792">
       <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" dxfId="416" priority="793">
+    <cfRule type="expression" dxfId="310" priority="793">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H52">
-    <cfRule type="expression" dxfId="415" priority="794">
+    <cfRule type="expression" dxfId="309" priority="794">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="containsText" dxfId="414" priority="795" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="308" priority="795" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="expression" dxfId="413" priority="796">
+    <cfRule type="expression" dxfId="307" priority="796">
       <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="expression" dxfId="412" priority="797">
+    <cfRule type="expression" dxfId="306" priority="797">
       <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="411" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="798" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="expression" dxfId="410" priority="800">
+    <cfRule type="expression" dxfId="304" priority="800">
       <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="expression" dxfId="409" priority="801">
+    <cfRule type="expression" dxfId="303" priority="801">
       <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="408" priority="802" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="302" priority="802" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="expression" dxfId="407" priority="803">
+    <cfRule type="expression" dxfId="301" priority="803">
       <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="expression" dxfId="406" priority="804">
+    <cfRule type="expression" dxfId="300" priority="804">
       <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="405" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="805" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="expression" dxfId="404" priority="807">
+    <cfRule type="expression" dxfId="298" priority="807">
       <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="expression" dxfId="403" priority="808">
+    <cfRule type="expression" dxfId="297" priority="808">
       <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="402" priority="809" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="296" priority="809" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="401" priority="810">
+    <cfRule type="expression" dxfId="295" priority="810">
       <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="400" priority="811">
+    <cfRule type="expression" dxfId="294" priority="811">
       <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" dxfId="399" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="812" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="398" priority="814">
+    <cfRule type="expression" dxfId="292" priority="814">
       <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="397" priority="815">
+    <cfRule type="expression" dxfId="291" priority="815">
       <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="396" priority="816" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="290" priority="816" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="395" priority="817">
+    <cfRule type="expression" dxfId="289" priority="817">
       <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="394" priority="818">
+    <cfRule type="expression" dxfId="288" priority="818">
       <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="cellIs" dxfId="393" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="819" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="392" priority="821">
+    <cfRule type="expression" dxfId="286" priority="821">
       <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="391" priority="822">
+    <cfRule type="expression" dxfId="285" priority="822">
       <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="containsText" dxfId="390" priority="823" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="284" priority="823" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="expression" dxfId="389" priority="824">
+    <cfRule type="expression" dxfId="283" priority="824">
       <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="expression" dxfId="388" priority="825">
+    <cfRule type="expression" dxfId="282" priority="825">
       <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="cellIs" dxfId="387" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="826" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="expression" dxfId="386" priority="828">
+    <cfRule type="expression" dxfId="280" priority="828">
       <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="expression" dxfId="385" priority="829">
+    <cfRule type="expression" dxfId="279" priority="829">
       <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" dxfId="384" priority="830" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="278" priority="830" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="expression" dxfId="383" priority="831">
+    <cfRule type="expression" dxfId="277" priority="831">
       <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="expression" dxfId="382" priority="832">
+    <cfRule type="expression" dxfId="276" priority="832">
       <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="cellIs" dxfId="381" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="833" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="expression" dxfId="380" priority="835">
+    <cfRule type="expression" dxfId="274" priority="835">
       <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="expression" dxfId="379" priority="836">
+    <cfRule type="expression" dxfId="273" priority="836">
       <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="containsText" dxfId="378" priority="837" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="272" priority="837" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="expression" dxfId="377" priority="838">
+    <cfRule type="expression" dxfId="271" priority="838">
       <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="expression" dxfId="376" priority="839">
+    <cfRule type="expression" dxfId="270" priority="839">
       <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="cellIs" dxfId="375" priority="840" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="840" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="expression" dxfId="374" priority="842">
+    <cfRule type="expression" dxfId="268" priority="842">
       <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="expression" dxfId="373" priority="843">
+    <cfRule type="expression" dxfId="267" priority="843">
       <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="containsText" dxfId="372" priority="844" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="266" priority="844" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="expression" dxfId="371" priority="845">
+    <cfRule type="expression" dxfId="265" priority="845">
       <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="expression" dxfId="370" priority="846">
+    <cfRule type="expression" dxfId="264" priority="846">
       <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="cellIs" dxfId="369" priority="847" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="847" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="expression" dxfId="368" priority="849">
+    <cfRule type="expression" dxfId="262" priority="849">
       <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="expression" dxfId="367" priority="850">
+    <cfRule type="expression" dxfId="261" priority="850">
       <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="containsText" dxfId="366" priority="851" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="260" priority="851" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="365" priority="852">
+    <cfRule type="expression" dxfId="259" priority="852">
       <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="364" priority="853">
+    <cfRule type="expression" dxfId="258" priority="853">
       <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="cellIs" dxfId="363" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="854" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="362" priority="856">
+    <cfRule type="expression" dxfId="256" priority="856">
       <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="361" priority="857">
+    <cfRule type="expression" dxfId="255" priority="857">
       <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" dxfId="360" priority="858" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="254" priority="858" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="expression" dxfId="359" priority="859">
+    <cfRule type="expression" dxfId="253" priority="859">
       <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="expression" dxfId="358" priority="860">
+    <cfRule type="expression" dxfId="252" priority="860">
       <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="cellIs" dxfId="357" priority="861" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="861" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="expression" dxfId="356" priority="863">
+    <cfRule type="expression" dxfId="250" priority="863">
       <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="expression" dxfId="355" priority="864">
+    <cfRule type="expression" dxfId="249" priority="864">
       <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="containsText" dxfId="354" priority="865" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="248" priority="865" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="expression" dxfId="353" priority="866">
+    <cfRule type="expression" dxfId="247" priority="866">
       <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="expression" dxfId="352" priority="867">
+    <cfRule type="expression" dxfId="246" priority="867">
       <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="351" priority="868" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="868" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="expression" dxfId="350" priority="870">
+    <cfRule type="expression" dxfId="244" priority="870">
       <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="expression" dxfId="349" priority="871">
+    <cfRule type="expression" dxfId="243" priority="871">
       <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="containsText" dxfId="348" priority="872" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="242" priority="872" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="347" priority="873">
+    <cfRule type="expression" dxfId="241" priority="873">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="346" priority="874">
+    <cfRule type="expression" dxfId="240" priority="874">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="345" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="875" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="343" priority="877">
+    <cfRule type="expression" dxfId="238" priority="877">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="342" priority="878">
+    <cfRule type="expression" dxfId="237" priority="878">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="containsText" dxfId="341" priority="879" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="236" priority="879" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="expression" dxfId="340" priority="880">
+    <cfRule type="expression" dxfId="235" priority="880">
       <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="expression" dxfId="339" priority="881">
+    <cfRule type="expression" dxfId="234" priority="881">
       <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="338" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="882" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="expression" dxfId="337" priority="884">
+    <cfRule type="expression" dxfId="232" priority="884">
       <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="expression" dxfId="336" priority="885">
+    <cfRule type="expression" dxfId="231" priority="885">
       <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="containsText" dxfId="335" priority="886" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="230" priority="886" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="expression" dxfId="334" priority="887">
+    <cfRule type="expression" dxfId="229" priority="887">
       <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="expression" dxfId="333" priority="888">
+    <cfRule type="expression" dxfId="228" priority="888">
       <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="cellIs" dxfId="332" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="889" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="expression" dxfId="331" priority="891">
+    <cfRule type="expression" dxfId="226" priority="891">
       <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="expression" dxfId="330" priority="892">
+    <cfRule type="expression" dxfId="225" priority="892">
       <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="containsText" dxfId="329" priority="893" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="224" priority="893" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="expression" dxfId="328" priority="894">
+    <cfRule type="expression" dxfId="223" priority="894">
       <formula>AND($A92="begin group", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="expression" dxfId="327" priority="895">
+    <cfRule type="expression" dxfId="222" priority="895">
       <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="cellIs" dxfId="326" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="896" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="expression" dxfId="325" priority="898">
+    <cfRule type="expression" dxfId="220" priority="898">
       <formula>AND($A92="begin repeat", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="expression" dxfId="324" priority="899">
+    <cfRule type="expression" dxfId="219" priority="899">
       <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="323" priority="900">
+    <cfRule type="expression" dxfId="218" priority="900">
       <formula>AND($I44 = "", $A44 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="322" priority="901">
+    <cfRule type="expression" dxfId="217" priority="901">
       <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="321" priority="902">
+    <cfRule type="expression" dxfId="216" priority="902">
       <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="320" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="903" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="319" priority="904" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="214" priority="904" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="318" priority="905">
+    <cfRule type="expression" dxfId="213" priority="905">
       <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="317" priority="906" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="906" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="316" priority="907">
+    <cfRule type="expression" dxfId="211" priority="907">
       <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="315" priority="908">
+    <cfRule type="expression" dxfId="210" priority="908">
       <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G45 = "", $H45 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="314" priority="909">
+    <cfRule type="expression" dxfId="209" priority="909">
       <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G45 = "", $H45 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="313" priority="910">
+    <cfRule type="expression" dxfId="208" priority="910">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$1063, "begin group") = COUNTIF($A$1:$A$1063, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="312" priority="911">
+    <cfRule type="expression" dxfId="207" priority="911">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1054, "begin group") = COUNTIF($A$1:$A$1063, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="311" priority="912">
+    <cfRule type="expression" dxfId="206" priority="912">
       <formula>COUNTIF($B$2:$B$1011,B44)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="310" priority="913">
+    <cfRule type="expression" dxfId="205" priority="913">
       <formula>AND($I54 = "", $A54 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="309" priority="914">
+    <cfRule type="expression" dxfId="204" priority="914">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="308" priority="915">
+    <cfRule type="expression" dxfId="203" priority="915">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="307" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="916" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="306" priority="917" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="201" priority="917" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="305" priority="918">
+    <cfRule type="expression" dxfId="200" priority="918">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="304" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="919" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="303" priority="920">
+    <cfRule type="expression" dxfId="198" priority="920">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="302" priority="921">
+    <cfRule type="expression" dxfId="197" priority="921">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G55 = "", $H55 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="301" priority="922">
+    <cfRule type="expression" dxfId="196" priority="922">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G55 = "", $H55 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="300" priority="923">
+    <cfRule type="expression" dxfId="195" priority="923">
       <formula>COUNTIF($B$2:$B$1011,B54)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="299" priority="924">
+    <cfRule type="expression" dxfId="194" priority="924">
       <formula>AND($I67 = "", $A67 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="298" priority="925">
+    <cfRule type="expression" dxfId="193" priority="925">
       <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="297" priority="926">
+    <cfRule type="expression" dxfId="192" priority="926">
       <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" dxfId="296" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="927" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="295" priority="928" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="190" priority="928" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="294" priority="929">
+    <cfRule type="expression" dxfId="189" priority="929">
       <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="293" priority="930" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="930" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="292" priority="931">
+    <cfRule type="expression" dxfId="187" priority="931">
       <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="291" priority="932">
+    <cfRule type="expression" dxfId="186" priority="932">
       <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G68 = "", $H68 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="290" priority="933">
+    <cfRule type="expression" dxfId="185" priority="933">
       <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G68 = "", $H68 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="289" priority="934">
+    <cfRule type="expression" dxfId="184" priority="934">
       <formula>COUNTIF($B$2:$B$1011,B67)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="expression" dxfId="288" priority="935">
+    <cfRule type="expression" dxfId="183" priority="935">
       <formula>AND($I79 = "", $A79 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="287" priority="936">
+    <cfRule type="expression" dxfId="182" priority="936">
       <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $C79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="286" priority="937">
+    <cfRule type="expression" dxfId="181" priority="937">
       <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $B79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="cellIs" dxfId="285" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="938" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="284" priority="939" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="179" priority="939" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="283" priority="940">
+    <cfRule type="expression" dxfId="178" priority="940">
       <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="282" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="941" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="281" priority="942">
+    <cfRule type="expression" dxfId="176" priority="942">
       <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="280" priority="943">
+    <cfRule type="expression" dxfId="175" priority="943">
       <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G80 = "", $H80 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="279" priority="944">
+    <cfRule type="expression" dxfId="174" priority="944">
       <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G80 = "", $H80 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="278" priority="945">
+    <cfRule type="expression" dxfId="173" priority="945">
       <formula>COUNTIF($B$2:$B$1011,B79)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="expression" dxfId="277" priority="946">
+    <cfRule type="expression" dxfId="172" priority="946">
       <formula>AND($I91 = "", $A91 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="276" priority="947">
+    <cfRule type="expression" dxfId="171" priority="947">
       <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $C91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="275" priority="948">
+    <cfRule type="expression" dxfId="170" priority="948">
       <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $B91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="274" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="949" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="containsText" dxfId="273" priority="950" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="168" priority="950" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="272" priority="951">
+    <cfRule type="expression" dxfId="167" priority="951">
       <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="271" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="952" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="270" priority="953">
+    <cfRule type="expression" dxfId="165" priority="953">
       <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="269" priority="954">
+    <cfRule type="expression" dxfId="164" priority="954">
       <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G92 = "", $H92 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="268" priority="955">
+    <cfRule type="expression" dxfId="163" priority="955">
       <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G92 = "", $H92 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="267" priority="956">
+    <cfRule type="expression" dxfId="162" priority="956">
       <formula>COUNTIF($B$2:$B$1011,B91)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="266" priority="957" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="161" priority="957" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="265" priority="958">
+    <cfRule type="expression" dxfId="160" priority="958">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="264" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="959" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="263" priority="960">
+    <cfRule type="expression" dxfId="158" priority="960">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="262" priority="961">
+    <cfRule type="expression" dxfId="157" priority="961">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G58 = "", $H58 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="261" priority="962">
+    <cfRule type="expression" dxfId="156" priority="962">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G58 = "", $H58 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="260" priority="963">
+    <cfRule type="expression" dxfId="155" priority="963">
       <formula>AND($I32 = "", $A32 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="259" priority="964">
+    <cfRule type="expression" dxfId="154" priority="964">
       <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $C32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="258" priority="965">
+    <cfRule type="expression" dxfId="153" priority="965">
       <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="257" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="966" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsText" dxfId="256" priority="967" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="151" priority="967" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="255" priority="968">
+    <cfRule type="expression" dxfId="150" priority="968">
       <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="254" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="969" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="253" priority="970">
+    <cfRule type="expression" dxfId="148" priority="970">
       <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="252" priority="971">
+    <cfRule type="expression" dxfId="147" priority="971">
       <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G34 = "", $H34 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="251" priority="972">
+    <cfRule type="expression" dxfId="146" priority="972">
       <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G34 = "", $H34 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="250" priority="973">
+    <cfRule type="expression" dxfId="145" priority="973">
       <formula>COUNTIF($B$2:$B$1011,B32)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="containsText" dxfId="249" priority="974" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="144" priority="974" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="expression" dxfId="248" priority="975">
+    <cfRule type="expression" dxfId="143" priority="975">
       <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="expression" dxfId="247" priority="976">
+    <cfRule type="expression" dxfId="142" priority="976">
       <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="cellIs" dxfId="246" priority="977" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="977" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="245" priority="978">
+    <cfRule type="expression" dxfId="140" priority="978">
       <formula>AND($I33 = "", $A33 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="244" priority="979">
+    <cfRule type="expression" dxfId="139" priority="979">
       <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $C33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="243" priority="980">
+    <cfRule type="expression" dxfId="138" priority="980">
       <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $B33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="242" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="981" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="241" priority="982">
+    <cfRule type="expression" dxfId="136" priority="982">
       <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="expression" dxfId="240" priority="983">
+    <cfRule type="expression" dxfId="135" priority="983">
       <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="expression" dxfId="239" priority="984">
+    <cfRule type="expression" dxfId="134" priority="984">
       <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="238" priority="985">
+    <cfRule type="expression" dxfId="133" priority="985">
       <formula>COUNTIF($B$2:$B$1095,B33)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20799,7 +19769,7 @@
       </c>
       <c r="C2" s="14">
         <f ca="1">NOW()</f>
-        <v>44095.619402893521</v>
+        <v>44102.615530092589</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>332</v>

--- a/config/default/forms/app/peer_calendar.xlsx
+++ b/config/default/forms/app/peer_calendar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -213,7 +213,7 @@
     <t xml:space="preserve">month-year</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= ${initial_contact_date} and floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today())) and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100 </t>
+    <t xml:space="preserve">. &gt;=format-date-time(../initial_contact_date,"%Y-%m") and floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today())) and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100 </t>
   </si>
   <si>
     <t xml:space="preserve">Encounter date cannot be before first contact date which was  (${initial_contact_date} ), and also can not be in the future </t>
@@ -9880,25 +9880,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="8:8"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0102040816326"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="79.1938775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.8163265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="15.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="81.984693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.75"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.75"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10926,7 +10926,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="67" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
         <v>58</v>
       </c>
@@ -15232,4123 +15232,3310 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37,G38:H40">
-    <cfRule type="containsText" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37,G38:H40,A47:Y50,A95:Y96,A83:Y84,A71:Y72,A58:Y58,A59:D59,F59:Y59">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37,G38:H40,A47:Y50,A95:Y96,A83:Y84,A71:Y72,A58:Y58,A59:D59,F59:Y59">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37,G38:H40">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>AND($I38 = "", $A38 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+      <formula>AND($I39 = "", $A39 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+      <formula>AND($I40 = "", $A40 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37,I47:I50,I95:I96,I83:I84,I71:I72,I58:I59">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND($I37 = "", $A37 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37,C47:C50,C95:C96,C83:C84,C71:C72,C58:C59">
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37,B47:B50,B95:B96,B83:B84,B71:B72,B58:B59">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+      <formula>AND($I41 = "", $A41 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H50,H37:H40,H95:H96,H83:H84,H71:H72,H58:H59">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>AND(NOT($G27 = ""), $H27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37,G38:H40,A47:Y50,A95:Y96,A83:Y84,A71:Y72,A58:Y58,A59:D59,F59:Y59">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37,G38:H40,A47:Y50,A95:Y96,A83:Y84,A71:Y72,A58:Y58,A59:D59,F59:Y59">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:F38,I38:Y38">
-    <cfRule type="containsText" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:F38,I38:Y38">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:F38,I38:Y38">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:F38,I38:Y38">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+      <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="containsText" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>AND($I38 = "", $A38 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>AND($I42 = "", $A42 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
+      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:F38,I38:Y38">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:F38,I38:Y38">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:F39,I39:Y39">
-    <cfRule type="containsText" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:F39,I39:Y39">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:F39,I39:Y39">
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:F39,I39:Y39">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+      <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:Y42">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="containsText" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($I39 = "", $A39 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
+      <formula>AND($I43 = "", $A43 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:F39,I39:Y39">
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:F39,I39:Y39">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:F40,I40:Y40">
-    <cfRule type="containsText" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:F40,I40:Y40">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:F40,I40:Y40">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:F40,I40:Y40">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
+      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:Y43">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="containsText" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>AND($I40 = "", $A40 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:F40,I40:Y40">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:F40,I40:Y40">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="containsText" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="containsText" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
-      <formula>AND($I41 = "", $A41 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
-      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
-      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
-      <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="containsText" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
-      <formula>AND($I42 = "", $A42 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
-      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
+  <conditionalFormatting sqref="A47:Y50">
+    <cfRule type="containsText" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y50">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A50">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
-      <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="containsText" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
+  <conditionalFormatting sqref="A47:Y50">
+    <cfRule type="containsText" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y50">
+    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
-      <formula>AND($I43 = "", $A43 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
+  <conditionalFormatting sqref="A100:Y101">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
+      <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y101">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
+      <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100:I101">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
+      <formula>AND($I100 = "", $A100 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100:C101">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
+      <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $C100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100:B101">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+      <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $B100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100:H101">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
+      <formula>AND(NOT($G100 = ""), $H100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y101">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
+      <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:Y101">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
+      <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+      <formula>AND($I51 = "", $A51 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
-      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
-    <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
+      <formula>AND($I52 = "", $A52 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
+      <formula>AND($I53 = "", $A53 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
+      <formula>AND($I54 = "", $A54 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="containsText" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>AND($I44 = "", $A44 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="167">
+      <formula>AND($I55 = "", $A55 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="168">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="169">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" priority="120" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="170">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
-      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171">
+      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="172">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="173">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="176">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A59">
+    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="181">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
+      <formula>AND($I57 = "", $A57 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" priority="129" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
+    <cfRule type="containsText" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
+    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
-      <formula>AND($I45 = "", $A45 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
+  <conditionalFormatting sqref="I60:I62">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C62">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A62">
+    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
-      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="containsText" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:Y45">
-    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
+  <conditionalFormatting sqref="H60:H62">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
+    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="204">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
+    <cfRule type="containsText" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Y62">
+    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="206">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y50">
-    <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y50">
-    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="containsText" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
+      <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
+      <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A50">
-    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
+  <conditionalFormatting sqref="I99">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
+      <formula>AND($I99 = "", $A99 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
+      <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $C99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
+      <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $B99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y50">
-    <cfRule type="containsText" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y50">
-    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
+  <conditionalFormatting sqref="H99">
+    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
+      <formula>AND(NOT($G99 = ""), $H99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
+      <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:Y99">
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
+      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:Y31">
+    <cfRule type="containsText" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:Y31">
+    <cfRule type="cellIs" priority="155" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y101">
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
-      <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y101">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
-      <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100:I101">
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
-      <formula>AND($I100 = "", $A100 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100:C101">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
-      <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $C100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B101">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
-      <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $B100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H101">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
-      <formula>AND(NOT($G100 = ""), $H100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y101">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
-      <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:Y101">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
-      <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51,I51:Y51">
-    <cfRule type="containsText" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51,I51:Y51">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="cellIs" priority="156" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
+      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
+      <formula>AND($I63 = "", $A63 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+      <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
+    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
+    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
+    <cfRule type="containsText" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
+    <cfRule type="cellIs" priority="166" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
+    <cfRule type="containsText" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:Y63">
+    <cfRule type="cellIs" priority="169" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+      <formula>AND($I64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" priority="173" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
+      <formula>AND($I65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" priority="177" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
+      <formula>AND($I66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" priority="181" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
+      <formula>AND($I67 = "", $A67 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" priority="185" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+      <formula>AND($I68 = "", $A68 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" priority="189" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y72">
+    <cfRule type="containsText" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y72">
+    <cfRule type="cellIs" priority="191" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" priority="192" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y72">
+    <cfRule type="containsText" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="287"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:Y72">
+    <cfRule type="cellIs" priority="194" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y72">
+    <cfRule type="containsText" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y72">
+    <cfRule type="cellIs" priority="196" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A72">
+    <cfRule type="cellIs" priority="197" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y72">
+    <cfRule type="containsText" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="292"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y72">
+    <cfRule type="cellIs" priority="199" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
+      <formula>AND($I70 = "", $A70 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
+      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
+      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" priority="203" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:Y74">
+    <cfRule type="containsText" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="304"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:Y74">
+    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:Y74">
+    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
+      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:Y74">
+    <cfRule type="cellIs" priority="207" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I74">
+    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
+      <formula>AND($I73 = "", $A73 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73:C74">
+    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
+      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $C73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:B74">
+    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
+      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $B73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:A74">
+    <cfRule type="cellIs" priority="211" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H74">
+    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
+      <formula>AND(NOT($G73 = ""), $H73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:Y74">
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:Y74">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
+      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:Y74">
+    <cfRule type="containsText" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="315"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:Y74">
+    <cfRule type="cellIs" priority="216" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Y75">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Y75">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
+      <formula>AND($I75 = "", $A75 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
+      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $B75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
+      <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Y75">
+    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Y75">
+    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
+      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Y75">
+    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="325"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Y75">
+    <cfRule type="cellIs" priority="226" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" priority="227" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Y75">
+    <cfRule type="containsText" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="328"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Y75">
+    <cfRule type="cellIs" priority="229" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
+      <formula>AND($I76 = "", $A76 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
+      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $C76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
+      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $B76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="cellIs" priority="233" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+      <formula>AND($I77 = "", $A77 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $C77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
+      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $B77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="cellIs" priority="237" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
+      <formula>AND($I78 = "", $A78 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
+      <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $C78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+      <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $B78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" priority="241" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
+      <formula>AND($I79 = "", $A79 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
+      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $C79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
+      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $B79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="cellIs" priority="245" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
+    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
+      <formula>AND($I80 = "", $A80 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
+      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $C80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
+      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $B80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="cellIs" priority="249" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="containsText" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="380"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="cellIs" priority="251" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="containsText" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="383"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="cellIs" priority="254" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:Y84">
+    <cfRule type="containsText" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="385"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:Y84">
+    <cfRule type="cellIs" priority="256" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A84">
+    <cfRule type="cellIs" priority="257" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:Y84">
+    <cfRule type="containsText" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="388"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:Y84">
+    <cfRule type="cellIs" priority="259" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
+      <formula>AND($I82 = "", $A82 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
+      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $C82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
+      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $B82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" priority="263" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:Y86">
+    <cfRule type="containsText" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="400"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:Y86">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
+      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:Y86">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
+      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:Y86">
+    <cfRule type="cellIs" priority="267" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85:I86">
+    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
+      <formula>AND($I85 = "", $A85 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85:C86">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
+      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $C85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85:B86">
+    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
+      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $B85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:A86">
+    <cfRule type="cellIs" priority="271" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85:H86">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
+      <formula>AND(NOT($G85 = ""), $H85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:Y86">
+    <cfRule type="expression" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
+      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:Y86">
+    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
+      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:Y86">
+    <cfRule type="containsText" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="411"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:Y86">
+    <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:Y87">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
+      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:Y87">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
+      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87">
+    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
+      <formula>AND($I87 = "", $A87 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
+      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
+      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $B87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
+      <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:Y87">
+    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
+      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:Y87">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
+      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:Y87">
+    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="421"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:Y87">
+    <cfRule type="cellIs" priority="286" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="cellIs" priority="287" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:Y87">
+    <cfRule type="containsText" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="424"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:Y87">
+    <cfRule type="cellIs" priority="289" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
+      <formula>AND($I88 = "", $A88 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
+      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
+      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $B88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="cellIs" priority="293" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
+      <formula>AND($I89 = "", $A89 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
+      <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $C89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="442">
+      <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $B89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="cellIs" priority="297" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="450">
+      <formula>AND($I90 = "", $A90 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
+      <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $C90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
+      <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $B90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="cellIs" priority="301" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
+      <formula>AND($I91 = "", $A91 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="461">
+      <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $C91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="462">
+      <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $B91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="cellIs" priority="305" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="463">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I92">
+    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="470">
+      <formula>AND($I92 = "", $A92 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
+      <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $C92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
+      <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $B92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="cellIs" priority="309" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="473">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="containsText" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="476"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="cellIs" priority="311" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="477">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" priority="312" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="478">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="containsText" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="479"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:Y96">
+    <cfRule type="cellIs" priority="314" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="480">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:Y96">
+    <cfRule type="containsText" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="481"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:Y96">
+    <cfRule type="cellIs" priority="316" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="482">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:A96">
+    <cfRule type="cellIs" priority="317" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="483">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:Y96">
+    <cfRule type="containsText" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="484"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:Y96">
+    <cfRule type="cellIs" priority="319" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="485">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="490">
+      <formula>AND($I94 = "", $A94 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="491">
+      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $C94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="492">
+      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $B94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="cellIs" priority="323" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="493">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y98">
+    <cfRule type="containsText" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="496"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y98">
+    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="497">
+      <formula>AND($A97="begin group", NOT($B97 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y98">
+    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="498">
+      <formula>AND($A97="end group", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y98">
+    <cfRule type="cellIs" priority="327" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="499">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97:I98">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="500">
+      <formula>AND($I97 = "", $A97 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97:C98">
+    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="501">
+      <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $C97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97:B98">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="502">
+      <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $B97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:A98">
+    <cfRule type="cellIs" priority="331" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="503">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97:H98">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="504">
+      <formula>AND(NOT($G97 = ""), $H97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y98">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="505">
+      <formula>AND($A97="begin repeat", NOT($B97 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y98">
+    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="506">
+      <formula>AND($A97="end repeat", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y98">
+    <cfRule type="containsText" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="507"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:Y98">
+    <cfRule type="cellIs" priority="336" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="508">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="containsText" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="509"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="510">
+      <formula>AND($A153="begin group", NOT($B153 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="511">
+      <formula>AND($A153="end group", $B153 = "", $C153 = "", $D153 = "", $E153 = "", $F153 = "", $G153 = "", $H153 = "", $I153 = "", $J153 = "", $K153 = "", $L153 = "", $M153 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="cellIs" priority="340" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="512">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="cellIs" priority="341" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="513">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="514">
+      <formula>AND($A153="begin repeat", NOT($B153 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="515">
+      <formula>AND($A153="end repeat", $B153 = "", $C153 = "", $D153 = "", $E153 = "", $F153 = "", $G153 = "", $H153 = "", $I153 = "", $J153 = "", $K153 = "", $L153 = "", $M153 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="containsText" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="517"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="518">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="519">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" priority="347" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="520">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="521">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="522">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="containsText" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="523"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="524">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51,I51:Y51">
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="525">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51,I51:Y51">
-    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" priority="353" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="526">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
-      <formula>AND($I51 = "", $A51 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="527">
+      <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="528">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="529">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="containsText" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="530"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="531">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="532">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" priority="360" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="533">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="534">
+      <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="535">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="536">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="containsText" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="537"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="538">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="539">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" priority="367" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="540">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="541">
+      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="542">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="543">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="containsText" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="544"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="545">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="546">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" priority="374" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="547">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="548">
+      <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="549">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="550">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="containsText" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="551"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="552">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="553">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" priority="381" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="554">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="555">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="556">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="557"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="558">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="559">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" priority="387" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="560">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="561">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="562">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="containsText" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="563"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="564">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="565">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" priority="393" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="566">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="567">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="568">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="containsText" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="569"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="570">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="571">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="cellIs" priority="399" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="572">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="573">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="574">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="containsText" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="575"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="576">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="577">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="cellIs" priority="405" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="578">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="579">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="580">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="containsText" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="581"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="582">
+      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="583">
+      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="cellIs" priority="411" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="584">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="585">
+      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="586">
+      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="containsText" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="587"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="588">
+      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="589">
+      <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="cellIs" priority="417" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="590">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="591">
+      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="592">
+      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="containsText" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="593"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="594">
+      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="595">
+      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="cellIs" priority="423" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="596">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="597">
+      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="598">
+      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="containsText" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="599"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="600">
+      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="601">
+      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" priority="429" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="602">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="603">
+      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="604">
+      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="containsText" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="605"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="606">
+      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="607">
+      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="cellIs" priority="435" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="608">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="609">
+      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="610">
+      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="containsText" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="611"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="612">
+      <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="613">
+      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="cellIs" priority="441" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="614">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="615">
+      <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="616">
+      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsText" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="617"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="618">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="619">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="cellIs" priority="447" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="620">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="621">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="622">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="containsText" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="623"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="624">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="625">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="cellIs" priority="453" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="626">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="627">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="628">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="containsText" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="629"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="630">
+      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="631">
+      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="cellIs" priority="459" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="632">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="633">
+      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="634">
+      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="635">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="636">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="637">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="cellIs" priority="465" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="638">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51,I51:Y51">
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+  <conditionalFormatting sqref="E46">
+    <cfRule type="containsText" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="639"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="640">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" priority="468" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="641">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="642">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="643">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G47 = "", $H47 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="644">
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G47 = "", $H47 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="645">
+      <formula>COUNTIF($B$2:$B$1013,B46)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="646">
+      <formula>AND($I56 = "", $A56 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="647">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="648">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" priority="476" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="649">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="650"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="651">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" priority="479" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="652">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="653">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="654">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G57 = "", $H57 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="482" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="655">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G57 = "", $H57 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" priority="483" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="656">
+      <formula>COUNTIF($B$2:$B$1013,B56)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="657">
+      <formula>AND($I69 = "", $A69 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="expression" priority="485" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="658">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="659">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" priority="487" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="660">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="661"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="662">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" priority="490" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="663">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" priority="491" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="664">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="665">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G70 = "", $H70 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="666">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G70 = "", $H70 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="667">
+      <formula>COUNTIF($B$2:$B$1013,B69)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="668">
+      <formula>AND($I81 = "", $A81 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="669">
+      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $C81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="expression" priority="497" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="670">
+      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $B81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" priority="498" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="671">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="containsText" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="672"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="500" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="673">
+      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" priority="501" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="674">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="675">
+      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="503" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="676">
+      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G82 = "", $H82 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="677">
+      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G82 = "", $H82 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="678">
+      <formula>COUNTIF($B$2:$B$1013,B81)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I93">
+    <cfRule type="expression" priority="506" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="679">
+      <formula>AND($I93 = "", $A93 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
+    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="680">
+      <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $C93 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="681">
+      <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $B93 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="cellIs" priority="509" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="682">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="containsText" priority="510" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="683"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" priority="511" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="684">
+      <formula>AND($A93="begin group", NOT($B93 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" priority="512" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="685">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" priority="513" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="686">
+      <formula>AND($A93="begin repeat", NOT($B93 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" priority="514" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="687">
+      <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G94 = "", $H94 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" priority="515" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="688">
+      <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G94 = "", $H94 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="expression" priority="516" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="689">
+      <formula>COUNTIF($B$2:$B$1013,B93)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" priority="517" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="690"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="518" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="691">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" priority="519" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="692">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="693">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="694">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G60 = "", $H60 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="522" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="695">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G60 = "", $H60 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" priority="523" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="696">
+      <formula>AND($I34 = "", $A34 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" priority="524" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="697">
+      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $C34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" priority="525" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="698">
+      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $B34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="cellIs" priority="526" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="699">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="containsText" priority="527" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="700"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" priority="528" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="701">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" priority="529" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="702">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" priority="530" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="703">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" priority="531" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="704">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G36 = "", $H36 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" priority="532" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="705">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G36 = "", $H36 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" priority="533" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="706">
+      <formula>COUNTIF($B$2:$B$1013,B34)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="containsText" priority="534" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="707"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="expression" priority="535" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="708">
+      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="expression" priority="536" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="709">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="cellIs" priority="537" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="710">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" priority="538" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="711">
+      <formula>AND($I35 = "", $A35 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" priority="539" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="712">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" priority="540" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="713">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="cellIs" priority="541" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="714">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" priority="542" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="715">
+      <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="expression" priority="543" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="716">
+      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
+    <cfRule type="expression" priority="544" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="717">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" priority="545" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="718">
+      <formula>COUNTIF($B$2:$B$1097,B35)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="containsText" priority="546" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="719"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="720">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="548" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="721">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" priority="549" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="722">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="550" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="723">
+      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="551" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="724">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="552" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="725">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="containsText" priority="553" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="726"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" priority="554" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="727">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" priority="555" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="728">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" priority="556" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="729">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" priority="557" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="730">
+      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" priority="558" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="731">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" priority="559" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="732">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="containsText" priority="560" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="733"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" priority="561" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="734">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" priority="562" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="735">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" priority="563" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="736">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" priority="564" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="737">
+      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" priority="565" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="738">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" priority="566" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="739">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="containsText" priority="567" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="740"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" priority="568" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="741">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" priority="569" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="742">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" priority="570" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="743">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" priority="571" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="744">
+      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" priority="572" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="745">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" priority="573" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="746">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="containsText" priority="574" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="747"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" priority="575" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="748">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" priority="576" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="749">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" priority="577" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="750">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" priority="578" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="751">
+      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" priority="579" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="752">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" priority="580" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="753">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="containsText" priority="581" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="754"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="582" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="755">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="583" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="756">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" priority="584" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="757">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="585" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="758">
+      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="586" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="759">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="587" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="760">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="containsText" priority="588" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="761"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="expression" priority="589" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="762">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="expression" priority="590" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="763">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" priority="591" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="764">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="expression" priority="592" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="765">
+      <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="expression" priority="593" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="766">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="expression" priority="594" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="767">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" priority="595" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="768"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" priority="596" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="769">
+      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" priority="597" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="770">
+      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" priority="598" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="771">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" priority="599" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="772">
+      <formula>AND(NOT($G80 = ""), $H80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" priority="600" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="773">
+      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" priority="601" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="774">
+      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="containsText" priority="602" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="775"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" priority="603" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="776">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" priority="604" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="777">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" priority="605" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="778">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" priority="606" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="779">
+      <formula>AND(NOT($G76 = ""), $H76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" priority="607" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="780">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" priority="608" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="781">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="containsText" priority="609" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="782"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" priority="610" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="783">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" priority="611" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="784">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" priority="612" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="785">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" priority="613" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="786">
+      <formula>AND(NOT($G77 = ""), $H77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" priority="614" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="787">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" priority="615" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="788">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" priority="616" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="789"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" priority="617" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="790">
+      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" priority="618" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="791">
+      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" priority="619" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="792">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" priority="620" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="793">
+      <formula>AND(NOT($G78 = ""), $H78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" priority="621" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="794">
+      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" priority="622" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="795">
+      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" priority="623" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="796"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" priority="624" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="797">
+      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" priority="625" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="798">
+      <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" priority="626" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="799">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" priority="627" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="800">
+      <formula>AND(NOT($G79 = ""), $H79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" priority="628" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="801">
+      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" priority="629" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="802">
+      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="containsText" priority="630" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="803"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" priority="631" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="804">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" priority="632" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="805">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="cellIs" priority="633" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="806">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" priority="634" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="807">
+      <formula>AND(NOT($G82 = ""), $H82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" priority="635" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="808">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" priority="636" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="809">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="containsText" priority="637" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="810"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" priority="638" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="811">
+      <formula>AND($A92="begin group", NOT($B92 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" priority="639" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="812">
+      <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="cellIs" priority="640" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="813">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" priority="641" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="814">
+      <formula>AND(NOT($G92 = ""), $H92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" priority="642" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="815">
+      <formula>AND($A92="begin repeat", NOT($B92 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" priority="643" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="816">
+      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="containsText" priority="644" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="817"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="expression" priority="645" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="818">
+      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="expression" priority="646" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="819">
+      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" priority="647" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="820">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="expression" priority="648" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="821">
+      <formula>AND(NOT($G88 = ""), $H88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="expression" priority="649" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="822">
+      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="expression" priority="650" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="823">
+      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="containsText" priority="651" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="824"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="expression" priority="652" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="825">
+      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="expression" priority="653" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="826">
+      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="cellIs" priority="654" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="827">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="expression" priority="655" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="828">
+      <formula>AND(NOT($G89 = ""), $H89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="expression" priority="656" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="829">
+      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="expression" priority="657" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="830">
+      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="containsText" priority="658" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="831"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="expression" priority="659" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="832">
+      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="expression" priority="660" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="833">
+      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="cellIs" priority="661" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="834">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="expression" priority="662" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="835">
+      <formula>AND(NOT($G90 = ""), $H90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="expression" priority="663" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="836">
+      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="expression" priority="664" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="837">
+      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="containsText" priority="665" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="838"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="expression" priority="666" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="839">
+      <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="expression" priority="667" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="840">
+      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" priority="668" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="841">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="expression" priority="669" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="842">
+      <formula>AND(NOT($G91 = ""), $H91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="expression" priority="670" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="843">
+      <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="expression" priority="671" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="844">
+      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="containsText" priority="672" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="845"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" priority="673" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="846">
+      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" priority="674" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="847">
+      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="cellIs" priority="675" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="848">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" priority="676" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="849">
+      <formula>AND(NOT($G94 = ""), $H94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" priority="677" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="850">
+      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" priority="678" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="851">
+      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="679" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="852">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1065, "begin group") = COUNTIF($A$1:$A$1065, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="680" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="853">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1056, "begin group") = COUNTIF($A$1:$A$1065, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="containsText" priority="681" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="854"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" priority="682" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="855">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" priority="683" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="856">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="cellIs" priority="684" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="857">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" priority="685" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="858">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51,I51:Y51">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" priority="686" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="859">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52,I52:Y52">
-    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52,I52:Y52">
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
+  <conditionalFormatting sqref="G52">
+    <cfRule type="containsText" priority="687" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="860"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" priority="688" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="861">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52,I52:Y52">
-    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" priority="689" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="862">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52,I52:Y52">
-    <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" priority="690" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="863">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
-      <formula>AND($I52 = "", $A52 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52,I52:Y52">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141">
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" priority="691" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="864">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52,I52:Y52">
-    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142">
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" priority="692" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="865">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53,I53:Y53">
-    <cfRule type="containsText" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53,I53:Y53">
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144">
+  <conditionalFormatting sqref="G53">
+    <cfRule type="containsText" priority="693" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="866"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" priority="694" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="867">
       <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53,I53:Y53">
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="145">
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" priority="695" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="868">
       <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53,I53:Y53">
-    <cfRule type="cellIs" priority="148" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
+  <conditionalFormatting sqref="G53">
+    <cfRule type="cellIs" priority="696" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="869">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
-      <formula>AND($I53 = "", $A53 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53,I53:Y53">
-    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" priority="697" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="870">
       <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53,I53:Y53">
-    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" priority="698" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="871">
       <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:F54,I54:Y54">
-    <cfRule type="containsText" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:F54,I54:Y54">
-    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="containsText" priority="699" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="872"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" priority="700" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="873">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:F54,I54:Y54">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" priority="701" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="874">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:F54,I54:Y54">
-    <cfRule type="cellIs" priority="158" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" priority="702" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="875">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
-      <formula>AND($I54 = "", $A54 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" priority="162" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:F54,I54:Y54">
-    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" priority="703" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="876">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:F54,I54:Y54">
-    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" priority="704" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="877">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="containsText" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="cellIs" priority="168" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166">
+  <conditionalFormatting sqref="G57">
+    <cfRule type="containsText" priority="705" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="878"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="expression" priority="706" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="879">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="expression" priority="707" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="880">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" priority="708" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="881">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="167">
-      <formula>AND($I55 = "", $A55 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="168">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="169">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="172" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="170">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171">
-      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="172">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="173">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D59,F59:Y59">
-    <cfRule type="containsText" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D59,F59:Y59">
-    <cfRule type="cellIs" priority="177" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="175">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" priority="178" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="176">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D59,F59:Y59">
-    <cfRule type="containsText" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D59,F59:Y59">
-    <cfRule type="cellIs" priority="180" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="178">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:Y58,A59:D59,F59:Y59">
-    <cfRule type="containsText" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:Y58,A59:D59,F59:Y59">
-    <cfRule type="cellIs" priority="182" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="180">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A59">
-    <cfRule type="cellIs" priority="183" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="181">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:Y58,A59:D59,F59:Y59">
-    <cfRule type="containsText" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:Y58,A59:D59,F59:Y59">
-    <cfRule type="cellIs" priority="185" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57,I57:Y57">
-    <cfRule type="containsText" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57,I57:Y57">
-    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57,I57:Y57">
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57,I57:Y57">
-    <cfRule type="cellIs" priority="189" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
-      <formula>AND($I57 = "", $A57 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" priority="193" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57,I57:Y57">
-    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192">
+  <conditionalFormatting sqref="G57">
+    <cfRule type="expression" priority="709" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="882">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57,I57:Y57">
-    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y62">
-    <cfRule type="containsText" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y62">
-    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y62">
-    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y62">
-    <cfRule type="cellIs" priority="199" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:I62">
-    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
-      <formula>AND($I60 = "", $A60 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C62">
-    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62">
-    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A62">
-    <cfRule type="cellIs" priority="203" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60:H62">
-    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
-      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y62">
-    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y62">
-    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="204">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y62">
-    <cfRule type="containsText" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="205"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:Y62">
-    <cfRule type="cellIs" priority="208" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="206">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="containsText" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
-      <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
-      <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="cellIs" priority="212" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I99">
-    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
-      <formula>AND($I99 = "", $A99 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
-      <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $C99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
-      <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $B99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="cellIs" priority="216" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
-      <formula>AND(NOT($G99 = ""), $H99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
-      <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
-      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:Y31">
-    <cfRule type="containsText" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:Y31">
-    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" priority="222" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:Y63">
-    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:Y63">
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
-      <formula>AND($I63 = "", $A63 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
-      <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
-      <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:Y63">
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:Y63">
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:Y63">
-    <cfRule type="containsText" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:Y63">
-    <cfRule type="cellIs" priority="232" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" priority="233" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:Y63">
-    <cfRule type="containsText" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:Y63">
-    <cfRule type="cellIs" priority="235" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64,I64:Y64">
-    <cfRule type="containsText" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64,I64:Y64">
-    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64,I64:Y64">
-    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64,I64:Y64">
-    <cfRule type="cellIs" priority="239" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
-      <formula>AND($I64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" priority="243" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64,I64:Y64">
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64,I64:Y64">
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65,I65:Y65">
-    <cfRule type="containsText" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="244"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65,I65:Y65">
-    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65,I65:Y65">
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65,I65:Y65">
-    <cfRule type="cellIs" priority="249" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
-      <formula>AND($I65 = "", $A65 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
-      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" priority="253" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65,I65:Y65">
-    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65,I65:Y65">
-    <cfRule type="expression" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66,I66:Y66">
-    <cfRule type="containsText" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66,I66:Y66">
-    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66,I66:Y66">
-    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66,I66:Y66">
-    <cfRule type="cellIs" priority="259" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
-      <formula>AND($I66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" priority="263" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66,I66:Y66">
-    <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66,I66:Y66">
-    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67,I67:Y67">
-    <cfRule type="containsText" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="264"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67,I67:Y67">
-    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67,I67:Y67">
-    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67,I67:Y67">
-    <cfRule type="cellIs" priority="269" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
-      <formula>AND($I67 = "", $A67 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" priority="273" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67,I67:Y67">
-    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67,I67:Y67">
-    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:G68,I68:Y68">
-    <cfRule type="containsText" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="274"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:G68,I68:Y68">
-    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:G68,I68:Y68">
-    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:G68,I68:Y68">
-    <cfRule type="cellIs" priority="279" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
-      <formula>AND($I68 = "", $A68 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" priority="283" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:G68,I68:Y68">
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:G68,I68:Y68">
-    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y72">
-    <cfRule type="containsText" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="284"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y72">
-    <cfRule type="cellIs" priority="287" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y72">
-    <cfRule type="containsText" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:Y72">
-    <cfRule type="cellIs" priority="290" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="containsText" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="cellIs" priority="292" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A72">
-    <cfRule type="cellIs" priority="293" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="containsText" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="292"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Y72">
-    <cfRule type="cellIs" priority="295" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70,I70:Y70">
-    <cfRule type="containsText" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="294"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70,I70:Y70">
-    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70,I70:Y70">
-    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70,I70:Y70">
-    <cfRule type="cellIs" priority="299" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
-    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
-      <formula>AND($I70 = "", $A70 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" priority="303" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70,I70:Y70">
-    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70,I70:Y70">
-    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Y74">
-    <cfRule type="containsText" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="304"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Y74">
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
-      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Y74">
-    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
-      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Y74">
-    <cfRule type="cellIs" priority="309" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:I74">
-    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
-      <formula>AND($I73 = "", $A73 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73:C74">
-    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
-      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $C73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73:B74">
-    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
-      <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $B73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A74">
-    <cfRule type="cellIs" priority="313" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H74">
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
-      <formula>AND(NOT($G73 = ""), $H73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Y74">
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
-      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Y74">
-    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
-      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Y74">
-    <cfRule type="containsText" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="315"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Y74">
-    <cfRule type="cellIs" priority="318" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Y75">
-    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
-      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Y75">
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
-      <formula>AND($I75 = "", $A75 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
-      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $C75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
-      <formula>AND(AND(NOT($A75 = "end group"), NOT($A75 = "end repeat"), NOT($A75 = "")), $B75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
-      <formula>AND(NOT($G75 = ""), $H75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Y75">
-    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
-      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Y75">
-    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Y75">
-    <cfRule type="containsText" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="325"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Y75">
-    <cfRule type="cellIs" priority="328" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" priority="329" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Y75">
-    <cfRule type="containsText" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="328"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Y75">
-    <cfRule type="cellIs" priority="331" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76,I76:Y76">
-    <cfRule type="containsText" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76,I76:Y76">
-    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76,I76:Y76">
-    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76,I76:Y76">
-    <cfRule type="cellIs" priority="335" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
-      <formula>AND($I76 = "", $A76 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
-      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $C76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
-      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $B76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" priority="339" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76,I76:Y76">
-    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
-      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76,I76:Y76">
-    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
-      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77,I77:Y77">
-    <cfRule type="containsText" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77,I77:Y77">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77,I77:Y77">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77,I77:Y77">
-    <cfRule type="cellIs" priority="345" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
-    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
-      <formula>AND($I77 = "", $A77 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
-      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $C77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
-      <formula>AND(AND(NOT($A77 = "end group"), NOT($A77 = "end repeat"), NOT($A77 = "")), $B77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" priority="349" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77,I77:Y77">
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77,I77:Y77">
-    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78,I78:Y78">
-    <cfRule type="containsText" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="350"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78,I78:Y78">
-    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
-      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78,I78:Y78">
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78,I78:Y78">
-    <cfRule type="cellIs" priority="355" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78">
-    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
-      <formula>AND($I78 = "", $A78 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
-      <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $C78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
-      <formula>AND(AND(NOT($A78 = "end group"), NOT($A78 = "end repeat"), NOT($A78 = "")), $B78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78,I78:Y78">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
-      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78,I78:Y78">
-    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
-      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79,I79:Y79">
-    <cfRule type="containsText" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="360"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79,I79:Y79">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
-      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79,I79:Y79">
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
-      <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79,I79:Y79">
-    <cfRule type="cellIs" priority="365" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
-      <formula>AND($I79 = "", $A79 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
-      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $C79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
-      <formula>AND(AND(NOT($A79 = "end group"), NOT($A79 = "end repeat"), NOT($A79 = "")), $B79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="cellIs" priority="369" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79,I79:Y79">
-    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
-      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79,I79:Y79">
-    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
-      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:G80,I80:Y80">
-    <cfRule type="containsText" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="370"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:G80,I80:Y80">
-    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
-      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:G80,I80:Y80">
-    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
-      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:G80,I80:Y80">
-    <cfRule type="cellIs" priority="375" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
-      <formula>AND($I80 = "", $A80 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
-      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $C80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
-      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $B80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" priority="379" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:G80,I80:Y80">
-    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
-      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:G80,I80:Y80">
-    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="379">
-      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="containsText" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="380"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="cellIs" priority="383" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" priority="384" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="containsText" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="383"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="cellIs" priority="386" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="containsText" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="385"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="cellIs" priority="388" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A84">
-    <cfRule type="cellIs" priority="389" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="containsText" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="388"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:Y84">
-    <cfRule type="cellIs" priority="391" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82,I82:Y82">
-    <cfRule type="containsText" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="390"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82,I82:Y82">
-    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82,I82:Y82">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82,I82:Y82">
-    <cfRule type="cellIs" priority="395" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
-      <formula>AND($I82 = "", $A82 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
-      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $C82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
-      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $B82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" priority="399" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82,I82:Y82">
-    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82,I82:Y82">
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:Y86">
-    <cfRule type="containsText" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="400"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:Y86">
-    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
-      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:Y86">
-    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
-      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:Y86">
-    <cfRule type="cellIs" priority="405" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85:I86">
-    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
-      <formula>AND($I85 = "", $A85 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:C86">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
-      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $C85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85:B86">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
-      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $B85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:A86">
-    <cfRule type="cellIs" priority="409" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H86">
-    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
-      <formula>AND(NOT($G85 = ""), $H85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:Y86">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
-      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:Y86">
-    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
-      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:Y86">
-    <cfRule type="containsText" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="411"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:Y86">
-    <cfRule type="cellIs" priority="414" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:Y87">
-    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:Y87">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
-      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
-      <formula>AND($I87 = "", $A87 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $B87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
-      <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:Y87">
-    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:Y87">
-    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
-      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:Y87">
-    <cfRule type="containsText" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="421"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:Y87">
-    <cfRule type="cellIs" priority="424" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" priority="425" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:Y87">
-    <cfRule type="containsText" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="424"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:Y87">
-    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:F88,I88:Y88">
-    <cfRule type="containsText" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="426"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:F88,I88:Y88">
-    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
-      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:F88,I88:Y88">
-    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
-      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:F88,I88:Y88">
-    <cfRule type="cellIs" priority="431" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88">
-    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
-      <formula>AND($I88 = "", $A88 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
-      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
-      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $B88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" priority="435" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:F88,I88:Y88">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
-      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:F88,I88:Y88">
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
-      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89:F89,I89:Y89">
-    <cfRule type="containsText" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="436"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89:F89,I89:Y89">
-    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
-      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89:F89,I89:Y89">
-    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
-      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89:F89,I89:Y89">
-    <cfRule type="cellIs" priority="441" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89">
-    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
-      <formula>AND($I89 = "", $A89 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
-      <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $C89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="442">
-      <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $B89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" priority="445" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89:F89,I89:Y89">
-    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="444">
-      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89:F89,I89:Y89">
-    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
-      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:F90,I90:Y90">
-    <cfRule type="containsText" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="446"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:F90,I90:Y90">
-    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
-      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:F90,I90:Y90">
-    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
-      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:F90,I90:Y90">
-    <cfRule type="cellIs" priority="451" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90">
-    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="450">
-      <formula>AND($I90 = "", $A90 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
-      <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $C90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
-      <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $B90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" priority="455" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:F90,I90:Y90">
-    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
-      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:F90,I90:Y90">
-    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
-      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:F91,I91:Y91">
-    <cfRule type="containsText" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="456"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:F91,I91:Y91">
-    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="457">
-      <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:F91,I91:Y91">
-    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="458">
-      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:F91,I91:Y91">
-    <cfRule type="cellIs" priority="461" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="459">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91">
-    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
-      <formula>AND($I91 = "", $A91 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="461">
-      <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $C91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="462">
-      <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $B91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" priority="465" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="463">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:F91,I91:Y91">
-    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="464">
-      <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:F91,I91:Y91">
-    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="465">
-      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:G92,I92:Y92">
-    <cfRule type="containsText" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="466"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:G92,I92:Y92">
-    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="467">
-      <formula>AND($A92="begin group", NOT($B92 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:G92,I92:Y92">
-    <cfRule type="expression" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="468">
-      <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:G92,I92:Y92">
-    <cfRule type="cellIs" priority="471" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="469">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I92">
-    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="470">
-      <formula>AND($I92 = "", $A92 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
-      <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $C92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
-      <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $B92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" priority="475" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="473">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:G92,I92:Y92">
-    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="474">
-      <formula>AND($A92="begin repeat", NOT($B92 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:G92,I92:Y92">
-    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="475">
-      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="containsText" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="476"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="cellIs" priority="479" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="477">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="cellIs" priority="480" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="478">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="containsText" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="479"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="cellIs" priority="482" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="480">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="containsText" priority="483" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="481"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="cellIs" priority="484" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="482">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A96">
-    <cfRule type="cellIs" priority="485" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="483">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="containsText" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="484"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:Y96">
-    <cfRule type="cellIs" priority="487" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="485">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:F94,I94:Y94">
-    <cfRule type="containsText" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="486"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:F94,I94:Y94">
-    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="487">
-      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:F94,I94:Y94">
-    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="488">
-      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:F94,I94:Y94">
-    <cfRule type="cellIs" priority="491" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="489">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94">
-    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="490">
-      <formula>AND($I94 = "", $A94 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="491">
-      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $C94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
-    <cfRule type="expression" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="492">
-      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $B94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="cellIs" priority="495" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="493">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:F94,I94:Y94">
-    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="494">
-      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:F94,I94:Y94">
-    <cfRule type="expression" priority="497" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="495">
-      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y98">
-    <cfRule type="containsText" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="496"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y98">
-    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="497">
-      <formula>AND($A97="begin group", NOT($B97 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y98">
-    <cfRule type="expression" priority="500" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="498">
-      <formula>AND($A97="end group", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y98">
-    <cfRule type="cellIs" priority="501" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="499">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I98">
-    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="500">
-      <formula>AND($I97 = "", $A97 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97:C98">
-    <cfRule type="expression" priority="503" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="501">
-      <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $C97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B98">
-    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="502">
-      <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $B97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:A98">
-    <cfRule type="cellIs" priority="505" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="503">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97:H98">
-    <cfRule type="expression" priority="506" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="504">
-      <formula>AND(NOT($G97 = ""), $H97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y98">
-    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="505">
-      <formula>AND($A97="begin repeat", NOT($B97 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y98">
-    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="506">
-      <formula>AND($A97="end repeat", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y98">
-    <cfRule type="containsText" priority="509" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="507"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:Y98">
-    <cfRule type="cellIs" priority="510" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="508">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="containsText" priority="511" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="509"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="expression" priority="512" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="510">
-      <formula>AND($A153="begin group", NOT($B153 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="expression" priority="513" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="511">
-      <formula>AND($A153="end group", $B153 = "", $C153 = "", $D153 = "", $E153 = "", $F153 = "", $G153 = "", $H153 = "", $I153 = "", $J153 = "", $K153 = "", $L153 = "", $M153 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="cellIs" priority="514" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="512">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="cellIs" priority="515" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="513">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="expression" priority="516" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="514">
-      <formula>AND($A153="begin repeat", NOT($B153 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="expression" priority="517" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="515">
-      <formula>AND($A153="end repeat", $B153 = "", $C153 = "", $D153 = "", $E153 = "", $F153 = "", $G153 = "", $H153 = "", $I153 = "", $J153 = "", $K153 = "", $L153 = "", $M153 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94,B57,B60:B62,B70,B73:B74,B82,B85:B86,B97:B99">
-    <cfRule type="expression" priority="518" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="516">
-      <formula>COUNTIF($B$2:$B$1064,B20)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" priority="519" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="517"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="expression" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="518">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="519">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" priority="522" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="520">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="expression" priority="523" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="521">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="expression" priority="524" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="522">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="containsText" priority="525" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="523"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" priority="526" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="524">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" priority="527" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="525">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" priority="528" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="526">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" priority="529" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="527">
-      <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" priority="530" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="528">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" priority="531" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="529">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="containsText" priority="532" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="530"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" priority="533" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="531">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" priority="534" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="532">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" priority="535" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="533">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" priority="536" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="534">
-      <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" priority="537" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="535">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" priority="538" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="536">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="containsText" priority="539" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="537"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="540" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="538">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="541" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="539">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" priority="542" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="540">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="543" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="541">
-      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="544" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="542">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" priority="545" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="543">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="containsText" priority="546" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="544"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="545">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" priority="548" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="546">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" priority="549" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="547">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" priority="550" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="548">
-      <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" priority="551" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="549">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" priority="552" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="550">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" priority="553" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="551"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" priority="554" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="552">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" priority="555" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="553">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" priority="556" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="554">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" priority="557" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="555">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" priority="558" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="556">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" priority="559" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="557"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" priority="560" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="558">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" priority="561" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="559">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" priority="562" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="560">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" priority="563" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="561">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" priority="564" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="562">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="containsText" priority="565" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="563"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="expression" priority="566" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="564">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="expression" priority="567" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="565">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" priority="568" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="566">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="expression" priority="569" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="567">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="expression" priority="570" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="568">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="containsText" priority="571" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="569"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="expression" priority="572" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="570">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="expression" priority="573" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="571">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="cellIs" priority="574" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="572">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="expression" priority="575" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="573">
-      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
-    <cfRule type="expression" priority="576" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="574">
-      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="containsText" priority="577" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="575"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="expression" priority="578" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="576">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="expression" priority="579" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="577">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="cellIs" priority="580" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="578">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="expression" priority="581" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="579">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="expression" priority="582" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="580">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="containsText" priority="583" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="581"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" priority="584" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="582">
-      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" priority="585" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="583">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="cellIs" priority="586" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="584">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" priority="587" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="585">
-      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" priority="588" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="586">
-      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="containsText" priority="589" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="587"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="expression" priority="590" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="588">
-      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="expression" priority="591" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="589">
-      <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="cellIs" priority="592" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="590">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="expression" priority="593" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="591">
-      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="expression" priority="594" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="592">
-      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="containsText" priority="595" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="593"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="expression" priority="596" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="594">
-      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="expression" priority="597" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="595">
-      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="cellIs" priority="598" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="596">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="expression" priority="599" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="597">
-      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="expression" priority="600" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="598">
-      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="containsText" priority="601" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="599"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="expression" priority="602" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="600">
-      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="expression" priority="603" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="601">
-      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" priority="604" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="602">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="expression" priority="605" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="603">
-      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="expression" priority="606" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="604">
-      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
-    <cfRule type="containsText" priority="607" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="605"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
-    <cfRule type="expression" priority="608" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="606">
-      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
-    <cfRule type="expression" priority="609" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="607">
-      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
-    <cfRule type="cellIs" priority="610" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="608">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
-    <cfRule type="expression" priority="611" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="609">
-      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
-    <cfRule type="expression" priority="612" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="610">
-      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="containsText" priority="613" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="611"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="expression" priority="614" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="612">
-      <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="expression" priority="615" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="613">
-      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="cellIs" priority="616" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="614">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="expression" priority="617" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="615">
-      <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="expression" priority="618" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="616">
-      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" priority="619" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="617"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="expression" priority="620" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="618">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="expression" priority="621" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="619">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" priority="622" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="620">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="expression" priority="623" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="621">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="expression" priority="624" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="622">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" priority="625" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="623"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" priority="626" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="624">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" priority="627" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="625">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="cellIs" priority="628" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="626">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" priority="629" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="627">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" priority="630" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="628">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
-    <cfRule type="containsText" priority="631" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="629"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
-    <cfRule type="expression" priority="632" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="630">
-      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
-    <cfRule type="expression" priority="633" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="631">
-      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
-    <cfRule type="cellIs" priority="634" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="632">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
-    <cfRule type="expression" priority="635" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="633">
-      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
-    <cfRule type="expression" priority="636" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="634">
-      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" priority="637" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="635">
-      <formula>AND($I46 = "", $A46 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" priority="638" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="636">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" priority="639" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="637">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" priority="640" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="638">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" priority="641" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="639"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" priority="642" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="640">
-      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" priority="643" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="641">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" priority="644" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="642">
-      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" priority="645" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="643">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G47 = "", $H47 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" priority="646" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="644">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G47 = "", $H47 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" priority="647" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="645">
-      <formula>COUNTIF($B$2:$B$1013,B46)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" priority="648" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="646">
-      <formula>AND($I56 = "", $A56 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" priority="649" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="647">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" priority="650" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="648">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" priority="651" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="649">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" priority="652" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="650"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="653" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="651">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" priority="654" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="652">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="655" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="653">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="656" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="654">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G57 = "", $H57 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="657" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="655">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G57 = "", $H57 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" priority="658" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="656">
-      <formula>COUNTIF($B$2:$B$1013,B56)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="expression" priority="659" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="657">
-      <formula>AND($I69 = "", $A69 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="expression" priority="660" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="658">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" priority="661" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="659">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" priority="662" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="660">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" priority="663" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="661"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" priority="664" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="662">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" priority="665" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="663">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" priority="666" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="664">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" priority="667" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="665">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G70 = "", $H70 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" priority="668" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="666">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G70 = "", $H70 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" priority="669" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="667">
-      <formula>COUNTIF($B$2:$B$1013,B69)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="expression" priority="670" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="668">
-      <formula>AND($I81 = "", $A81 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="expression" priority="671" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="669">
-      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $C81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" priority="672" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="670">
-      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $B81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" priority="673" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="671">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="containsText" priority="674" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="672"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="675" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="673">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" priority="676" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="674">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="677" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="675">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="678" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="676">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G82 = "", $H82 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="679" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="677">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G82 = "", $H82 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" priority="680" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="678">
-      <formula>COUNTIF($B$2:$B$1013,B81)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I93">
-    <cfRule type="expression" priority="681" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="679">
-      <formula>AND($I93 = "", $A93 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" priority="682" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="680">
-      <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $C93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="expression" priority="683" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="681">
-      <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $B93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="cellIs" priority="684" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="682">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="containsText" priority="685" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="683"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="686" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="684">
-      <formula>AND($A93="begin group", NOT($B93 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" priority="687" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="685">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="688" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="686">
-      <formula>AND($A93="begin repeat", NOT($B93 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="689" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="687">
-      <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G94 = "", $H94 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="690" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="688">
-      <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G94 = "", $H94 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="expression" priority="691" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="689">
-      <formula>COUNTIF($B$2:$B$1013,B93)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" priority="692" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="690"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="693" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="691">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="694" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="692">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="695" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="693">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="696" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="694">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G60 = "", $H60 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="697" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="695">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G60 = "", $H60 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" priority="698" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="696">
-      <formula>AND($I34 = "", $A34 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" priority="699" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="697">
-      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $C34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" priority="700" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="698">
-      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $B34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" priority="701" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="699">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" priority="702" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="700"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="703" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="701">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" priority="704" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="702">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="705" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="703">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="706" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="704">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G36 = "", $H36 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="707" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="705">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G36 = "", $H36 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" priority="708" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="706">
-      <formula>COUNTIF($B$2:$B$1013,B34)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="containsText" priority="709" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="707"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" priority="710" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="708">
-      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" priority="711" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="709">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="cellIs" priority="712" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="710">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="expression" priority="713" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="711">
-      <formula>AND($I35 = "", $A35 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" priority="714" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="712">
-      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" priority="715" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="713">
-      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" priority="716" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="714">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" priority="717" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="715">
-      <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" priority="718" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="716">
-      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" priority="719" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="717">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" priority="720" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="718">
-      <formula>COUNTIF($B$2:$B$1097,B35)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" priority="721" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="719"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" priority="722" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="720">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" priority="723" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="721">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" priority="724" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="722">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" priority="725" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="723">
-      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" priority="726" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="724">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" priority="727" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="725">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="containsText" priority="728" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="726"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="729" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="727">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="730" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="728">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" priority="731" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="729">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="732" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="730">
-      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="733" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="731">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="734" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="732">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" priority="735" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="733"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="736" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="734">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="737" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="735">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" priority="738" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="736">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="739" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="737">
-      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="740" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="738">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" priority="741" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="739">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="containsText" priority="742" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="740"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" priority="743" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="741">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" priority="744" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="742">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" priority="745" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="743">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" priority="746" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="744">
-      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" priority="747" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="745">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" priority="748" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="746">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" priority="749" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="747"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="750" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="748">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="751" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="749">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" priority="752" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="750">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="753" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="751">
-      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="754" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="752">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="755" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="753">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="containsText" priority="756" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="754"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="757" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="755">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="758" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="756">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" priority="759" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="757">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="760" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="758">
-      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="761" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="759">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="762" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="760">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="containsText" priority="763" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="761"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="expression" priority="764" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="762">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="expression" priority="765" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="763">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" priority="766" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="764">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="expression" priority="767" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="765">
-      <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="expression" priority="768" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="766">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="expression" priority="769" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="767">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" priority="770" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="768"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" priority="771" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="769">
-      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" priority="772" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="770">
-      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" priority="773" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="771">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" priority="774" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="772">
-      <formula>AND(NOT($G80 = ""), $H80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" priority="775" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="773">
-      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" priority="776" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="774">
-      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" priority="777" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="775"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" priority="778" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="776">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" priority="779" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="777">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" priority="780" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="778">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" priority="781" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="779">
-      <formula>AND(NOT($G76 = ""), $H76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" priority="782" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="780">
-      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" priority="783" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="781">
-      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" priority="784" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="782"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" priority="785" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="783">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" priority="786" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="784">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" priority="787" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="785">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" priority="788" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="786">
-      <formula>AND(NOT($G77 = ""), $H77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" priority="789" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="787">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" priority="790" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="788">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" priority="791" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="789"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" priority="792" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="790">
-      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" priority="793" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="791">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" priority="794" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="792">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" priority="795" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="793">
-      <formula>AND(NOT($G78 = ""), $H78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" priority="796" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="794">
-      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" priority="797" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="795">
-      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="containsText" priority="798" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="796"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" priority="799" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="797">
-      <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" priority="800" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="798">
-      <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" priority="801" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="799">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" priority="802" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="800">
-      <formula>AND(NOT($G79 = ""), $H79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" priority="803" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="801">
-      <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" priority="804" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="802">
-      <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="containsText" priority="805" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="803"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" priority="806" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="804">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" priority="807" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="805">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" priority="808" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="806">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" priority="809" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="807">
-      <formula>AND(NOT($G82 = ""), $H82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" priority="810" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="808">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" priority="811" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="809">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="containsText" priority="812" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="810"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="813" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="811">
-      <formula>AND($A92="begin group", NOT($B92 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="814" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="812">
-      <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" priority="815" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="813">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="816" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="814">
-      <formula>AND(NOT($G92 = ""), $H92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="817" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="815">
-      <formula>AND($A92="begin repeat", NOT($B92 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="818" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="816">
-      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" priority="819" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="817"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="expression" priority="820" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="818">
-      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="expression" priority="821" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="819">
-      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" priority="822" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="820">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="expression" priority="823" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="821">
-      <formula>AND(NOT($G88 = ""), $H88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="expression" priority="824" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="822">
-      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="expression" priority="825" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="823">
-      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" priority="826" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="824"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="expression" priority="827" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="825">
-      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="expression" priority="828" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="826">
-      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" priority="829" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="827">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="expression" priority="830" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="828">
-      <formula>AND(NOT($G89 = ""), $H89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="expression" priority="831" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="829">
-      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="expression" priority="832" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="830">
-      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="containsText" priority="833" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="831"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="expression" priority="834" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="832">
-      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="expression" priority="835" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="833">
-      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" priority="836" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="834">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="expression" priority="837" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="835">
-      <formula>AND(NOT($G90 = ""), $H90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="expression" priority="838" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="836">
-      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="expression" priority="839" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="837">
-      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="containsText" priority="840" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="838"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="expression" priority="841" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="839">
-      <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="expression" priority="842" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="840">
-      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="cellIs" priority="843" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="841">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="expression" priority="844" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="842">
-      <formula>AND(NOT($G91 = ""), $H91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="expression" priority="845" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="843">
-      <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="expression" priority="846" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="844">
-      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="containsText" priority="847" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="845"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="expression" priority="848" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="846">
-      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="expression" priority="849" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="847">
-      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" priority="850" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="848">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="expression" priority="851" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="849">
-      <formula>AND(NOT($G94 = ""), $H94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="expression" priority="852" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="850">
-      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="expression" priority="853" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="851">
-      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="854" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="852">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1065, "begin group") = COUNTIF($A$1:$A$1065, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="855" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="853">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1056, "begin group") = COUNTIF($A$1:$A$1065, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" priority="856" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="854"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" priority="857" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="855">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" priority="858" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="856">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" priority="859" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="857">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" priority="860" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="858">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" priority="861" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="859">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="containsText" priority="862" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="860"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" priority="863" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="861">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" priority="864" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="862">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" priority="865" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="863">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" priority="866" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="864">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" priority="867" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="865">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="containsText" priority="868" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="866"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" priority="869" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="867">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" priority="870" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="868">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" priority="871" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="869">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" priority="872" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="870">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" priority="873" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="871">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="containsText" priority="874" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="872"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" priority="875" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="873">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" priority="876" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="874">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" priority="877" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="875">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" priority="878" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="876">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" priority="879" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="877">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="containsText" priority="880" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="878"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="expression" priority="881" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="879">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="expression" priority="882" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="880">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" priority="883" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="881">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="expression" priority="884" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="882">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="expression" priority="885" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="883">
+    <cfRule type="expression" priority="710" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="883">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19378,15 +18565,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="1" sqref="8:8 A10"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19961,14 +19148,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E27" activeCellId="1" sqref="8:8 E27"/>
+      <selection pane="bottomLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20000,7 +19187,7 @@
       </c>
       <c r="C2" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44104.7258008682</v>
+        <v>44104.7997832623</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>373</v>
